--- a/sp_history0612--important_can 100 --unimportant_can 500 --input_tsn 30 --input_avb 70 --bg_tsn 30 --bg_avb 18.xlsx
+++ b/sp_history0612--important_can 100 --unimportant_can 500 --input_tsn 30 --input_avb 70 --bg_tsn 30 --bg_avb 18.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
   <si>
     <t>TimeStamp</t>
   </si>
@@ -348,6 +348,243 @@
   </si>
   <si>
     <t>2025-06-11 21:54:54</t>
+  </si>
+  <si>
+    <t>2025-06-12 13:14:53</t>
+  </si>
+  <si>
+    <t>2025-06-12 13:14:56</t>
+  </si>
+  <si>
+    <t>2025-06-12 13:14:58</t>
+  </si>
+  <si>
+    <t>2025-06-12 13:15:01</t>
+  </si>
+  <si>
+    <t>2025-06-12 13:15:03</t>
+  </si>
+  <si>
+    <t>2025-06-12 13:27:12</t>
+  </si>
+  <si>
+    <t>2025-06-12 13:27:15</t>
+  </si>
+  <si>
+    <t>2025-06-12 13:27:17</t>
+  </si>
+  <si>
+    <t>2025-06-12 13:28:10</t>
+  </si>
+  <si>
+    <t>2025-06-12 13:28:42</t>
+  </si>
+  <si>
+    <t>2025-06-12 13:30:18</t>
+  </si>
+  <si>
+    <t>2025-06-12 13:30:37</t>
+  </si>
+  <si>
+    <t>2025-06-12 13:31:18</t>
+  </si>
+  <si>
+    <t>2025-06-12 13:31:26</t>
+  </si>
+  <si>
+    <t>2025-06-12 13:31:28</t>
+  </si>
+  <si>
+    <t>2025-06-12 13:31:30</t>
+  </si>
+  <si>
+    <t>2025-06-12 13:42:54</t>
+  </si>
+  <si>
+    <t>2025-06-12 13:42:57</t>
+  </si>
+  <si>
+    <t>2025-06-12 13:42:59</t>
+  </si>
+  <si>
+    <t>2025-06-12 13:43:41</t>
+  </si>
+  <si>
+    <t>2025-06-12 13:43:43</t>
+  </si>
+  <si>
+    <t>2025-06-12 13:43:46</t>
+  </si>
+  <si>
+    <t>2025-06-12 13:44:37</t>
+  </si>
+  <si>
+    <t>2025-06-12 13:44:39</t>
+  </si>
+  <si>
+    <t>2025-06-12 13:44:41</t>
+  </si>
+  <si>
+    <t>2025-06-12 13:45:41</t>
+  </si>
+  <si>
+    <t>2025-06-12 13:45:44</t>
+  </si>
+  <si>
+    <t>2025-06-12 13:45:46</t>
+  </si>
+  <si>
+    <t>2025-06-12 13:53:49</t>
+  </si>
+  <si>
+    <t>2025-06-12 13:53:51</t>
+  </si>
+  <si>
+    <t>2025-06-12 13:53:53</t>
+  </si>
+  <si>
+    <t>2025-06-12 14:01:16</t>
+  </si>
+  <si>
+    <t>2025-06-12 14:01:18</t>
+  </si>
+  <si>
+    <t>2025-06-12 14:01:20</t>
+  </si>
+  <si>
+    <t>2025-06-12 14:01:22</t>
+  </si>
+  <si>
+    <t>2025-06-12 14:01:24</t>
+  </si>
+  <si>
+    <t>2025-06-12 14:24:12</t>
+  </si>
+  <si>
+    <t>2025-06-12 14:24:15</t>
+  </si>
+  <si>
+    <t>2025-06-12 14:24:18</t>
+  </si>
+  <si>
+    <t>2025-06-12 14:27:41</t>
+  </si>
+  <si>
+    <t>2025-06-12 14:27:45</t>
+  </si>
+  <si>
+    <t>2025-06-12 14:27:48</t>
+  </si>
+  <si>
+    <t>2025-06-12 14:29:59</t>
+  </si>
+  <si>
+    <t>2025-06-12 14:30:07</t>
+  </si>
+  <si>
+    <t>2025-06-12 14:30:14</t>
+  </si>
+  <si>
+    <t>2025-06-12 14:30:37</t>
+  </si>
+  <si>
+    <t>2025-06-12 14:30:42</t>
+  </si>
+  <si>
+    <t>2025-06-12 14:30:48</t>
+  </si>
+  <si>
+    <t>2025-06-12 14:30:55</t>
+  </si>
+  <si>
+    <t>2025-06-12 14:31:02</t>
+  </si>
+  <si>
+    <t>2025-06-12 14:31:06</t>
+  </si>
+  <si>
+    <t>2025-06-12 14:52:53</t>
+  </si>
+  <si>
+    <t>2025-06-12 14:52:54</t>
+  </si>
+  <si>
+    <t>2025-06-12 14:52:56</t>
+  </si>
+  <si>
+    <t>2025-06-12 14:54:14</t>
+  </si>
+  <si>
+    <t>2025-06-12 14:54:15</t>
+  </si>
+  <si>
+    <t>2025-06-12 14:54:17</t>
+  </si>
+  <si>
+    <t>2025-06-12 14:54:57</t>
+  </si>
+  <si>
+    <t>2025-06-12 14:54:58</t>
+  </si>
+  <si>
+    <t>2025-06-12 14:54:59</t>
+  </si>
+  <si>
+    <t>2025-06-12 14:56:03</t>
+  </si>
+  <si>
+    <t>2025-06-12 14:56:04</t>
+  </si>
+  <si>
+    <t>2025-06-12 14:56:06</t>
+  </si>
+  <si>
+    <t>2025-06-12 14:56:07</t>
+  </si>
+  <si>
+    <t>2025-06-12 14:56:08</t>
+  </si>
+  <si>
+    <t>2025-06-12 14:56:20</t>
+  </si>
+  <si>
+    <t>2025-06-12 14:56:33</t>
+  </si>
+  <si>
+    <t>2025-06-12 14:59:07</t>
+  </si>
+  <si>
+    <t>2025-06-12 14:59:49</t>
+  </si>
+  <si>
+    <t>2025-06-12 15:42:13</t>
+  </si>
+  <si>
+    <t>2025-06-12 15:45:24</t>
+  </si>
+  <si>
+    <t>2025-06-12 15:47:10</t>
+  </si>
+  <si>
+    <t>2025-06-12 15:47:25</t>
+  </si>
+  <si>
+    <t>2025-06-12 15:47:28</t>
+  </si>
+  <si>
+    <t>2025-06-12 17:02:05</t>
+  </si>
+  <si>
+    <t>2025-06-12 17:33:19</t>
+  </si>
+  <si>
+    <t>2025-06-12 17:37:09</t>
+  </si>
+  <si>
+    <t>2025-06-12 17:40:49</t>
+  </si>
+  <si>
+    <t>2025-06-12 17:47:00</t>
   </si>
 </sst>
 </file>
@@ -9890,6 +10127,7274 @@
         <v>88400821</v>
       </c>
     </row>
+    <row r="402">
+      <c r="A402" t="s">
+        <v>111</v>
+      </c>
+      <c r="B402" t="s">
+        <v>8</v>
+      </c>
+      <c r="C402">
+        <v>0</v>
+      </c>
+      <c r="D402">
+        <v>27</v>
+      </c>
+      <c r="E402">
+        <v>254133700</v>
+      </c>
+      <c r="F402">
+        <v>166013</v>
+      </c>
+      <c r="G402">
+        <v>27166013</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s">
+        <v>111</v>
+      </c>
+      <c r="B403" t="s">
+        <v>9</v>
+      </c>
+      <c r="C403">
+        <v>0</v>
+      </c>
+      <c r="D403">
+        <v>27</v>
+      </c>
+      <c r="E403">
+        <v>254133700</v>
+      </c>
+      <c r="F403">
+        <v>169428</v>
+      </c>
+      <c r="G403">
+        <v>27169428</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s">
+        <v>111</v>
+      </c>
+      <c r="B404" t="s">
+        <v>10</v>
+      </c>
+      <c r="C404">
+        <v>0</v>
+      </c>
+      <c r="D404">
+        <v>27</v>
+      </c>
+      <c r="E404">
+        <v>254150600</v>
+      </c>
+      <c r="F404">
+        <v>166099</v>
+      </c>
+      <c r="G404">
+        <v>27166099</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s">
+        <v>111</v>
+      </c>
+      <c r="B405" t="s">
+        <v>11</v>
+      </c>
+      <c r="C405">
+        <v>0</v>
+      </c>
+      <c r="D405">
+        <v>26</v>
+      </c>
+      <c r="E405">
+        <v>254133700</v>
+      </c>
+      <c r="F405">
+        <v>168096</v>
+      </c>
+      <c r="G405">
+        <v>26168096</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s">
+        <v>112</v>
+      </c>
+      <c r="B406" t="s">
+        <v>8</v>
+      </c>
+      <c r="C406">
+        <v>0</v>
+      </c>
+      <c r="D406">
+        <v>26</v>
+      </c>
+      <c r="E406">
+        <v>261351900</v>
+      </c>
+      <c r="F406">
+        <v>110998</v>
+      </c>
+      <c r="G406">
+        <v>26110998</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s">
+        <v>112</v>
+      </c>
+      <c r="B407" t="s">
+        <v>9</v>
+      </c>
+      <c r="C407">
+        <v>0</v>
+      </c>
+      <c r="D407">
+        <v>26</v>
+      </c>
+      <c r="E407">
+        <v>261351900</v>
+      </c>
+      <c r="F407">
+        <v>109015</v>
+      </c>
+      <c r="G407">
+        <v>26109015</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="s">
+        <v>112</v>
+      </c>
+      <c r="B408" t="s">
+        <v>10</v>
+      </c>
+      <c r="C408">
+        <v>0</v>
+      </c>
+      <c r="D408">
+        <v>26</v>
+      </c>
+      <c r="E408">
+        <v>261363300</v>
+      </c>
+      <c r="F408">
+        <v>111079</v>
+      </c>
+      <c r="G408">
+        <v>26111079</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="s">
+        <v>112</v>
+      </c>
+      <c r="B409" t="s">
+        <v>11</v>
+      </c>
+      <c r="C409">
+        <v>0</v>
+      </c>
+      <c r="D409">
+        <v>26</v>
+      </c>
+      <c r="E409">
+        <v>261351900</v>
+      </c>
+      <c r="F409">
+        <v>110544</v>
+      </c>
+      <c r="G409">
+        <v>26110544</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="s">
+        <v>113</v>
+      </c>
+      <c r="B410" t="s">
+        <v>8</v>
+      </c>
+      <c r="C410">
+        <v>0</v>
+      </c>
+      <c r="D410">
+        <v>30</v>
+      </c>
+      <c r="E410">
+        <v>255496100</v>
+      </c>
+      <c r="F410">
+        <v>238321</v>
+      </c>
+      <c r="G410">
+        <v>30238321</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="s">
+        <v>113</v>
+      </c>
+      <c r="B411" t="s">
+        <v>9</v>
+      </c>
+      <c r="C411">
+        <v>0</v>
+      </c>
+      <c r="D411">
+        <v>30</v>
+      </c>
+      <c r="E411">
+        <v>255496100</v>
+      </c>
+      <c r="F411">
+        <v>235629</v>
+      </c>
+      <c r="G411">
+        <v>30235629</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s">
+        <v>113</v>
+      </c>
+      <c r="B412" t="s">
+        <v>10</v>
+      </c>
+      <c r="C412">
+        <v>0</v>
+      </c>
+      <c r="D412">
+        <v>30</v>
+      </c>
+      <c r="E412">
+        <v>255533000</v>
+      </c>
+      <c r="F412">
+        <v>231476</v>
+      </c>
+      <c r="G412">
+        <v>30231476</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s">
+        <v>113</v>
+      </c>
+      <c r="B413" t="s">
+        <v>11</v>
+      </c>
+      <c r="C413">
+        <v>0</v>
+      </c>
+      <c r="D413">
+        <v>28</v>
+      </c>
+      <c r="E413">
+        <v>255496100</v>
+      </c>
+      <c r="F413">
+        <v>233605</v>
+      </c>
+      <c r="G413">
+        <v>28233605</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="s">
+        <v>114</v>
+      </c>
+      <c r="B414" t="s">
+        <v>8</v>
+      </c>
+      <c r="C414">
+        <v>0</v>
+      </c>
+      <c r="D414">
+        <v>28</v>
+      </c>
+      <c r="E414">
+        <v>254774900</v>
+      </c>
+      <c r="F414">
+        <v>158054</v>
+      </c>
+      <c r="G414">
+        <v>28158054</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="s">
+        <v>114</v>
+      </c>
+      <c r="B415" t="s">
+        <v>9</v>
+      </c>
+      <c r="C415">
+        <v>0</v>
+      </c>
+      <c r="D415">
+        <v>24</v>
+      </c>
+      <c r="E415">
+        <v>254774900</v>
+      </c>
+      <c r="F415">
+        <v>166716</v>
+      </c>
+      <c r="G415">
+        <v>24166716</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="s">
+        <v>114</v>
+      </c>
+      <c r="B416" t="s">
+        <v>10</v>
+      </c>
+      <c r="C416">
+        <v>0</v>
+      </c>
+      <c r="D416">
+        <v>24</v>
+      </c>
+      <c r="E416">
+        <v>254784600</v>
+      </c>
+      <c r="F416">
+        <v>158945</v>
+      </c>
+      <c r="G416">
+        <v>24158945</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="s">
+        <v>114</v>
+      </c>
+      <c r="B417" t="s">
+        <v>11</v>
+      </c>
+      <c r="C417">
+        <v>0</v>
+      </c>
+      <c r="D417">
+        <v>28</v>
+      </c>
+      <c r="E417">
+        <v>254774900</v>
+      </c>
+      <c r="F417">
+        <v>157738</v>
+      </c>
+      <c r="G417">
+        <v>28157738</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="s">
+        <v>115</v>
+      </c>
+      <c r="B418" t="s">
+        <v>8</v>
+      </c>
+      <c r="C418">
+        <v>0</v>
+      </c>
+      <c r="D418">
+        <v>30</v>
+      </c>
+      <c r="E418">
+        <v>292977900</v>
+      </c>
+      <c r="F418">
+        <v>237815</v>
+      </c>
+      <c r="G418">
+        <v>30237815</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="s">
+        <v>115</v>
+      </c>
+      <c r="B419" t="s">
+        <v>9</v>
+      </c>
+      <c r="C419">
+        <v>0</v>
+      </c>
+      <c r="D419">
+        <v>30</v>
+      </c>
+      <c r="E419">
+        <v>292977900</v>
+      </c>
+      <c r="F419">
+        <v>250084</v>
+      </c>
+      <c r="G419">
+        <v>30250084</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="s">
+        <v>115</v>
+      </c>
+      <c r="B420" t="s">
+        <v>10</v>
+      </c>
+      <c r="C420">
+        <v>0</v>
+      </c>
+      <c r="D420">
+        <v>30</v>
+      </c>
+      <c r="E420">
+        <v>293030200</v>
+      </c>
+      <c r="F420">
+        <v>256719</v>
+      </c>
+      <c r="G420">
+        <v>30256719</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="s">
+        <v>115</v>
+      </c>
+      <c r="B421" t="s">
+        <v>11</v>
+      </c>
+      <c r="C421">
+        <v>0</v>
+      </c>
+      <c r="D421">
+        <v>30</v>
+      </c>
+      <c r="E421">
+        <v>292977900</v>
+      </c>
+      <c r="F421">
+        <v>252195</v>
+      </c>
+      <c r="G421">
+        <v>30252195</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="s">
+        <v>116</v>
+      </c>
+      <c r="B422" t="s">
+        <v>8</v>
+      </c>
+      <c r="C422">
+        <v>0</v>
+      </c>
+      <c r="D422">
+        <v>29</v>
+      </c>
+      <c r="E422">
+        <v>0</v>
+      </c>
+      <c r="F422">
+        <v>164231</v>
+      </c>
+      <c r="G422">
+        <v>29164231</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="s">
+        <v>116</v>
+      </c>
+      <c r="B423" t="s">
+        <v>9</v>
+      </c>
+      <c r="C423">
+        <v>0</v>
+      </c>
+      <c r="D423">
+        <v>29</v>
+      </c>
+      <c r="E423">
+        <v>0</v>
+      </c>
+      <c r="F423">
+        <v>154268</v>
+      </c>
+      <c r="G423">
+        <v>29154268</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="s">
+        <v>116</v>
+      </c>
+      <c r="B424" t="s">
+        <v>10</v>
+      </c>
+      <c r="C424">
+        <v>0</v>
+      </c>
+      <c r="D424">
+        <v>29</v>
+      </c>
+      <c r="E424">
+        <v>0</v>
+      </c>
+      <c r="F424">
+        <v>163718</v>
+      </c>
+      <c r="G424">
+        <v>29163718</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="s">
+        <v>116</v>
+      </c>
+      <c r="B425" t="s">
+        <v>11</v>
+      </c>
+      <c r="C425">
+        <v>0</v>
+      </c>
+      <c r="D425">
+        <v>29</v>
+      </c>
+      <c r="E425">
+        <v>0</v>
+      </c>
+      <c r="F425">
+        <v>161052</v>
+      </c>
+      <c r="G425">
+        <v>29161052</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="s">
+        <v>117</v>
+      </c>
+      <c r="B426" t="s">
+        <v>8</v>
+      </c>
+      <c r="C426">
+        <v>0</v>
+      </c>
+      <c r="D426">
+        <v>28</v>
+      </c>
+      <c r="E426">
+        <v>0</v>
+      </c>
+      <c r="F426">
+        <v>173729</v>
+      </c>
+      <c r="G426">
+        <v>28173729</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="s">
+        <v>117</v>
+      </c>
+      <c r="B427" t="s">
+        <v>9</v>
+      </c>
+      <c r="C427">
+        <v>0</v>
+      </c>
+      <c r="D427">
+        <v>28</v>
+      </c>
+      <c r="E427">
+        <v>0</v>
+      </c>
+      <c r="F427">
+        <v>177830</v>
+      </c>
+      <c r="G427">
+        <v>28177830</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="s">
+        <v>117</v>
+      </c>
+      <c r="B428" t="s">
+        <v>10</v>
+      </c>
+      <c r="C428">
+        <v>0</v>
+      </c>
+      <c r="D428">
+        <v>28</v>
+      </c>
+      <c r="E428">
+        <v>0</v>
+      </c>
+      <c r="F428">
+        <v>172971</v>
+      </c>
+      <c r="G428">
+        <v>28172971</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="s">
+        <v>117</v>
+      </c>
+      <c r="B429" t="s">
+        <v>11</v>
+      </c>
+      <c r="C429">
+        <v>0</v>
+      </c>
+      <c r="D429">
+        <v>28</v>
+      </c>
+      <c r="E429">
+        <v>0</v>
+      </c>
+      <c r="F429">
+        <v>173050</v>
+      </c>
+      <c r="G429">
+        <v>28173050</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="s">
+        <v>118</v>
+      </c>
+      <c r="B430" t="s">
+        <v>8</v>
+      </c>
+      <c r="C430">
+        <v>0</v>
+      </c>
+      <c r="D430">
+        <v>29</v>
+      </c>
+      <c r="E430">
+        <v>0</v>
+      </c>
+      <c r="F430">
+        <v>144816</v>
+      </c>
+      <c r="G430">
+        <v>29144816</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="s">
+        <v>118</v>
+      </c>
+      <c r="B431" t="s">
+        <v>9</v>
+      </c>
+      <c r="C431">
+        <v>0</v>
+      </c>
+      <c r="D431">
+        <v>30</v>
+      </c>
+      <c r="E431">
+        <v>0</v>
+      </c>
+      <c r="F431">
+        <v>145036</v>
+      </c>
+      <c r="G431">
+        <v>30145036</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="s">
+        <v>118</v>
+      </c>
+      <c r="B432" t="s">
+        <v>10</v>
+      </c>
+      <c r="C432">
+        <v>0</v>
+      </c>
+      <c r="D432">
+        <v>30</v>
+      </c>
+      <c r="E432">
+        <v>0</v>
+      </c>
+      <c r="F432">
+        <v>148260</v>
+      </c>
+      <c r="G432">
+        <v>30148260</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="s">
+        <v>118</v>
+      </c>
+      <c r="B433" t="s">
+        <v>11</v>
+      </c>
+      <c r="C433">
+        <v>0</v>
+      </c>
+      <c r="D433">
+        <v>30</v>
+      </c>
+      <c r="E433">
+        <v>0</v>
+      </c>
+      <c r="F433">
+        <v>144697</v>
+      </c>
+      <c r="G433">
+        <v>30144697</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="s">
+        <v>119</v>
+      </c>
+      <c r="B434" t="s">
+        <v>8</v>
+      </c>
+      <c r="C434">
+        <v>0</v>
+      </c>
+      <c r="D434">
+        <v>29</v>
+      </c>
+      <c r="E434">
+        <v>0</v>
+      </c>
+      <c r="F434">
+        <v>156696</v>
+      </c>
+      <c r="G434">
+        <v>29156696</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="s">
+        <v>119</v>
+      </c>
+      <c r="B435" t="s">
+        <v>9</v>
+      </c>
+      <c r="C435">
+        <v>0</v>
+      </c>
+      <c r="D435">
+        <v>29</v>
+      </c>
+      <c r="E435">
+        <v>0</v>
+      </c>
+      <c r="F435">
+        <v>154745</v>
+      </c>
+      <c r="G435">
+        <v>29154745</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="s">
+        <v>119</v>
+      </c>
+      <c r="B436" t="s">
+        <v>10</v>
+      </c>
+      <c r="C436">
+        <v>0</v>
+      </c>
+      <c r="D436">
+        <v>29</v>
+      </c>
+      <c r="E436">
+        <v>0</v>
+      </c>
+      <c r="F436">
+        <v>161744</v>
+      </c>
+      <c r="G436">
+        <v>29161744</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="s">
+        <v>119</v>
+      </c>
+      <c r="B437" t="s">
+        <v>11</v>
+      </c>
+      <c r="C437">
+        <v>0</v>
+      </c>
+      <c r="D437">
+        <v>29</v>
+      </c>
+      <c r="E437">
+        <v>0</v>
+      </c>
+      <c r="F437">
+        <v>167745</v>
+      </c>
+      <c r="G437">
+        <v>29167745</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="s">
+        <v>120</v>
+      </c>
+      <c r="B438" t="s">
+        <v>8</v>
+      </c>
+      <c r="C438">
+        <v>0</v>
+      </c>
+      <c r="D438">
+        <v>30</v>
+      </c>
+      <c r="E438">
+        <v>0</v>
+      </c>
+      <c r="F438">
+        <v>212838</v>
+      </c>
+      <c r="G438">
+        <v>30212838</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="s">
+        <v>120</v>
+      </c>
+      <c r="B439" t="s">
+        <v>9</v>
+      </c>
+      <c r="C439">
+        <v>0</v>
+      </c>
+      <c r="D439">
+        <v>30</v>
+      </c>
+      <c r="E439">
+        <v>0</v>
+      </c>
+      <c r="F439">
+        <v>206380</v>
+      </c>
+      <c r="G439">
+        <v>30206380</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="s">
+        <v>120</v>
+      </c>
+      <c r="B440" t="s">
+        <v>10</v>
+      </c>
+      <c r="C440">
+        <v>0</v>
+      </c>
+      <c r="D440">
+        <v>30</v>
+      </c>
+      <c r="E440">
+        <v>0</v>
+      </c>
+      <c r="F440">
+        <v>216319</v>
+      </c>
+      <c r="G440">
+        <v>30216319</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="s">
+        <v>120</v>
+      </c>
+      <c r="B441" t="s">
+        <v>11</v>
+      </c>
+      <c r="C441">
+        <v>0</v>
+      </c>
+      <c r="D441">
+        <v>30</v>
+      </c>
+      <c r="E441">
+        <v>0</v>
+      </c>
+      <c r="F441">
+        <v>214499</v>
+      </c>
+      <c r="G441">
+        <v>30214499</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="s">
+        <v>121</v>
+      </c>
+      <c r="B442" t="s">
+        <v>8</v>
+      </c>
+      <c r="C442">
+        <v>0</v>
+      </c>
+      <c r="D442">
+        <v>30</v>
+      </c>
+      <c r="E442">
+        <v>0.2545944</v>
+      </c>
+      <c r="F442">
+        <v>184205</v>
+      </c>
+      <c r="G442">
+        <v>30184205</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="s">
+        <v>121</v>
+      </c>
+      <c r="B443" t="s">
+        <v>9</v>
+      </c>
+      <c r="C443">
+        <v>0</v>
+      </c>
+      <c r="D443">
+        <v>30</v>
+      </c>
+      <c r="E443">
+        <v>0.2545944</v>
+      </c>
+      <c r="F443">
+        <v>178890</v>
+      </c>
+      <c r="G443">
+        <v>30178890</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="s">
+        <v>121</v>
+      </c>
+      <c r="B444" t="s">
+        <v>10</v>
+      </c>
+      <c r="C444">
+        <v>0</v>
+      </c>
+      <c r="D444">
+        <v>30</v>
+      </c>
+      <c r="E444">
+        <v>0.2546324444444444</v>
+      </c>
+      <c r="F444">
+        <v>183539</v>
+      </c>
+      <c r="G444">
+        <v>30183539</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="s">
+        <v>121</v>
+      </c>
+      <c r="B445" t="s">
+        <v>11</v>
+      </c>
+      <c r="C445">
+        <v>0</v>
+      </c>
+      <c r="D445">
+        <v>30</v>
+      </c>
+      <c r="E445">
+        <v>0.2545944</v>
+      </c>
+      <c r="F445">
+        <v>185740</v>
+      </c>
+      <c r="G445">
+        <v>30185740</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="s">
+        <v>122</v>
+      </c>
+      <c r="B446" t="s">
+        <v>8</v>
+      </c>
+      <c r="C446">
+        <v>0</v>
+      </c>
+      <c r="D446">
+        <v>25</v>
+      </c>
+      <c r="E446">
+        <v>0.19720684444444445</v>
+      </c>
+      <c r="F446">
+        <v>133141</v>
+      </c>
+      <c r="G446">
+        <v>25133141</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="s">
+        <v>122</v>
+      </c>
+      <c r="B447" t="s">
+        <v>9</v>
+      </c>
+      <c r="C447">
+        <v>0</v>
+      </c>
+      <c r="D447">
+        <v>25</v>
+      </c>
+      <c r="E447">
+        <v>0.19720684444444447</v>
+      </c>
+      <c r="F447">
+        <v>133432</v>
+      </c>
+      <c r="G447">
+        <v>25133432</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="s">
+        <v>122</v>
+      </c>
+      <c r="B448" t="s">
+        <v>10</v>
+      </c>
+      <c r="C448">
+        <v>0</v>
+      </c>
+      <c r="D448">
+        <v>25</v>
+      </c>
+      <c r="E448">
+        <v>0.19722906666666665</v>
+      </c>
+      <c r="F448">
+        <v>135340</v>
+      </c>
+      <c r="G448">
+        <v>25135340</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="s">
+        <v>122</v>
+      </c>
+      <c r="B449" t="s">
+        <v>11</v>
+      </c>
+      <c r="C449">
+        <v>0</v>
+      </c>
+      <c r="D449">
+        <v>25</v>
+      </c>
+      <c r="E449">
+        <v>0.19720684444444445</v>
+      </c>
+      <c r="F449">
+        <v>136694</v>
+      </c>
+      <c r="G449">
+        <v>25136694</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="s">
+        <v>123</v>
+      </c>
+      <c r="B450" t="s">
+        <v>8</v>
+      </c>
+      <c r="C450">
+        <v>0</v>
+      </c>
+      <c r="D450">
+        <v>30</v>
+      </c>
+      <c r="E450">
+        <v>0.2446001777777777</v>
+      </c>
+      <c r="F450">
+        <v>209218</v>
+      </c>
+      <c r="G450">
+        <v>30209218</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="s">
+        <v>123</v>
+      </c>
+      <c r="B451" t="s">
+        <v>9</v>
+      </c>
+      <c r="C451">
+        <v>0</v>
+      </c>
+      <c r="D451">
+        <v>30</v>
+      </c>
+      <c r="E451">
+        <v>0.24460017777777773</v>
+      </c>
+      <c r="F451">
+        <v>200674</v>
+      </c>
+      <c r="G451">
+        <v>30200674</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="s">
+        <v>123</v>
+      </c>
+      <c r="B452" t="s">
+        <v>10</v>
+      </c>
+      <c r="C452">
+        <v>0</v>
+      </c>
+      <c r="D452">
+        <v>30</v>
+      </c>
+      <c r="E452">
+        <v>0.24461475555555554</v>
+      </c>
+      <c r="F452">
+        <v>200229</v>
+      </c>
+      <c r="G452">
+        <v>30200229</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="s">
+        <v>123</v>
+      </c>
+      <c r="B453" t="s">
+        <v>11</v>
+      </c>
+      <c r="C453">
+        <v>0</v>
+      </c>
+      <c r="D453">
+        <v>30</v>
+      </c>
+      <c r="E453">
+        <v>0.2446001777777778</v>
+      </c>
+      <c r="F453">
+        <v>206319</v>
+      </c>
+      <c r="G453">
+        <v>30206319</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="s">
+        <v>124</v>
+      </c>
+      <c r="B454" t="s">
+        <v>8</v>
+      </c>
+      <c r="C454">
+        <v>0</v>
+      </c>
+      <c r="D454">
+        <v>30</v>
+      </c>
+      <c r="E454">
+        <v>0.27151573333333334</v>
+      </c>
+      <c r="F454">
+        <v>248304</v>
+      </c>
+      <c r="G454">
+        <v>30248304</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="s">
+        <v>124</v>
+      </c>
+      <c r="B455" t="s">
+        <v>9</v>
+      </c>
+      <c r="C455">
+        <v>0</v>
+      </c>
+      <c r="D455">
+        <v>30</v>
+      </c>
+      <c r="E455">
+        <v>0.27151573333333334</v>
+      </c>
+      <c r="F455">
+        <v>244787</v>
+      </c>
+      <c r="G455">
+        <v>30244787</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="s">
+        <v>124</v>
+      </c>
+      <c r="B456" t="s">
+        <v>10</v>
+      </c>
+      <c r="C456">
+        <v>0</v>
+      </c>
+      <c r="D456">
+        <v>30</v>
+      </c>
+      <c r="E456">
+        <v>0.27153004444444445</v>
+      </c>
+      <c r="F456">
+        <v>251229</v>
+      </c>
+      <c r="G456">
+        <v>30251229</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="s">
+        <v>124</v>
+      </c>
+      <c r="B457" t="s">
+        <v>11</v>
+      </c>
+      <c r="C457">
+        <v>0</v>
+      </c>
+      <c r="D457">
+        <v>30</v>
+      </c>
+      <c r="E457">
+        <v>0.2715157333333334</v>
+      </c>
+      <c r="F457">
+        <v>235044</v>
+      </c>
+      <c r="G457">
+        <v>30235044</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="s">
+        <v>125</v>
+      </c>
+      <c r="B458" t="s">
+        <v>8</v>
+      </c>
+      <c r="C458">
+        <v>0</v>
+      </c>
+      <c r="D458">
+        <v>30</v>
+      </c>
+      <c r="E458">
+        <v>0.21988906666666666</v>
+      </c>
+      <c r="F458">
+        <v>256072</v>
+      </c>
+      <c r="G458">
+        <v>30256072</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="s">
+        <v>125</v>
+      </c>
+      <c r="B459" t="s">
+        <v>9</v>
+      </c>
+      <c r="C459">
+        <v>0</v>
+      </c>
+      <c r="D459">
+        <v>30</v>
+      </c>
+      <c r="E459">
+        <v>0.2198890666666666</v>
+      </c>
+      <c r="F459">
+        <v>246536</v>
+      </c>
+      <c r="G459">
+        <v>30246536</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="s">
+        <v>125</v>
+      </c>
+      <c r="B460" t="s">
+        <v>10</v>
+      </c>
+      <c r="C460">
+        <v>0</v>
+      </c>
+      <c r="D460">
+        <v>30</v>
+      </c>
+      <c r="E460">
+        <v>0.21990515555555548</v>
+      </c>
+      <c r="F460">
+        <v>246058</v>
+      </c>
+      <c r="G460">
+        <v>30246058</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="s">
+        <v>125</v>
+      </c>
+      <c r="B461" t="s">
+        <v>11</v>
+      </c>
+      <c r="C461">
+        <v>0</v>
+      </c>
+      <c r="D461">
+        <v>30</v>
+      </c>
+      <c r="E461">
+        <v>0.2198890666666667</v>
+      </c>
+      <c r="F461">
+        <v>247587</v>
+      </c>
+      <c r="G461">
+        <v>30247587</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="s">
+        <v>126</v>
+      </c>
+      <c r="B462" t="s">
+        <v>8</v>
+      </c>
+      <c r="C462">
+        <v>0</v>
+      </c>
+      <c r="D462">
+        <v>30</v>
+      </c>
+      <c r="E462">
+        <v>0.2539072888888888</v>
+      </c>
+      <c r="F462">
+        <v>196091</v>
+      </c>
+      <c r="G462">
+        <v>30196091</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="s">
+        <v>126</v>
+      </c>
+      <c r="B463" t="s">
+        <v>9</v>
+      </c>
+      <c r="C463">
+        <v>0</v>
+      </c>
+      <c r="D463">
+        <v>30</v>
+      </c>
+      <c r="E463">
+        <v>0.25390728888888886</v>
+      </c>
+      <c r="F463">
+        <v>189604</v>
+      </c>
+      <c r="G463">
+        <v>30189604</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="s">
+        <v>126</v>
+      </c>
+      <c r="B464" t="s">
+        <v>10</v>
+      </c>
+      <c r="C464">
+        <v>0</v>
+      </c>
+      <c r="D464">
+        <v>30</v>
+      </c>
+      <c r="E464">
+        <v>0.2539187555555556</v>
+      </c>
+      <c r="F464">
+        <v>192479</v>
+      </c>
+      <c r="G464">
+        <v>30192479</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="s">
+        <v>126</v>
+      </c>
+      <c r="B465" t="s">
+        <v>11</v>
+      </c>
+      <c r="C465">
+        <v>0</v>
+      </c>
+      <c r="D465">
+        <v>30</v>
+      </c>
+      <c r="E465">
+        <v>0.25390728888888886</v>
+      </c>
+      <c r="F465">
+        <v>186542</v>
+      </c>
+      <c r="G465">
+        <v>30186542</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="s">
+        <v>127</v>
+      </c>
+      <c r="B466" t="s">
+        <v>8</v>
+      </c>
+      <c r="C466">
+        <v>0</v>
+      </c>
+      <c r="D466">
+        <v>30</v>
+      </c>
+      <c r="E466">
+        <v>0.4529193725490196</v>
+      </c>
+      <c r="F466">
+        <v>280499</v>
+      </c>
+      <c r="G466">
+        <v>30280499</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="s">
+        <v>127</v>
+      </c>
+      <c r="B467" t="s">
+        <v>9</v>
+      </c>
+      <c r="C467">
+        <v>0</v>
+      </c>
+      <c r="D467">
+        <v>30</v>
+      </c>
+      <c r="E467">
+        <v>0.4529193725490196</v>
+      </c>
+      <c r="F467">
+        <v>279926</v>
+      </c>
+      <c r="G467">
+        <v>30279926</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="s">
+        <v>127</v>
+      </c>
+      <c r="B468" t="s">
+        <v>10</v>
+      </c>
+      <c r="C468">
+        <v>0</v>
+      </c>
+      <c r="D468">
+        <v>30</v>
+      </c>
+      <c r="E468">
+        <v>0.4529449411764706</v>
+      </c>
+      <c r="F468">
+        <v>271520</v>
+      </c>
+      <c r="G468">
+        <v>30271520</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="s">
+        <v>127</v>
+      </c>
+      <c r="B469" t="s">
+        <v>11</v>
+      </c>
+      <c r="C469">
+        <v>0</v>
+      </c>
+      <c r="D469">
+        <v>30</v>
+      </c>
+      <c r="E469">
+        <v>0.4529193725490196</v>
+      </c>
+      <c r="F469">
+        <v>271952</v>
+      </c>
+      <c r="G469">
+        <v>30271952</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="s">
+        <v>128</v>
+      </c>
+      <c r="B470" t="s">
+        <v>8</v>
+      </c>
+      <c r="C470">
+        <v>0</v>
+      </c>
+      <c r="D470">
+        <v>29</v>
+      </c>
+      <c r="E470">
+        <v>0.42841411764705883</v>
+      </c>
+      <c r="F470">
+        <v>184569</v>
+      </c>
+      <c r="G470">
+        <v>29184569</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="s">
+        <v>128</v>
+      </c>
+      <c r="B471" t="s">
+        <v>9</v>
+      </c>
+      <c r="C471">
+        <v>0</v>
+      </c>
+      <c r="D471">
+        <v>29</v>
+      </c>
+      <c r="E471">
+        <v>0.42841411764705883</v>
+      </c>
+      <c r="F471">
+        <v>177527</v>
+      </c>
+      <c r="G471">
+        <v>29177527</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="s">
+        <v>128</v>
+      </c>
+      <c r="B472" t="s">
+        <v>10</v>
+      </c>
+      <c r="C472">
+        <v>0</v>
+      </c>
+      <c r="D472">
+        <v>29</v>
+      </c>
+      <c r="E472">
+        <v>0.42843294117647057</v>
+      </c>
+      <c r="F472">
+        <v>181098</v>
+      </c>
+      <c r="G472">
+        <v>29181098</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="s">
+        <v>128</v>
+      </c>
+      <c r="B473" t="s">
+        <v>11</v>
+      </c>
+      <c r="C473">
+        <v>0</v>
+      </c>
+      <c r="D473">
+        <v>29</v>
+      </c>
+      <c r="E473">
+        <v>0.42841411764705883</v>
+      </c>
+      <c r="F473">
+        <v>177540</v>
+      </c>
+      <c r="G473">
+        <v>29177540</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="s">
+        <v>129</v>
+      </c>
+      <c r="B474" t="s">
+        <v>8</v>
+      </c>
+      <c r="C474">
+        <v>0</v>
+      </c>
+      <c r="D474">
+        <v>30</v>
+      </c>
+      <c r="E474">
+        <v>0.4237124705882353</v>
+      </c>
+      <c r="F474">
+        <v>204997</v>
+      </c>
+      <c r="G474">
+        <v>30204997</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="s">
+        <v>129</v>
+      </c>
+      <c r="B475" t="s">
+        <v>9</v>
+      </c>
+      <c r="C475">
+        <v>0</v>
+      </c>
+      <c r="D475">
+        <v>30</v>
+      </c>
+      <c r="E475">
+        <v>0.4237124705882353</v>
+      </c>
+      <c r="F475">
+        <v>225617</v>
+      </c>
+      <c r="G475">
+        <v>30225617</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="s">
+        <v>129</v>
+      </c>
+      <c r="B476" t="s">
+        <v>10</v>
+      </c>
+      <c r="C476">
+        <v>0</v>
+      </c>
+      <c r="D476">
+        <v>30</v>
+      </c>
+      <c r="E476">
+        <v>0.42373254901960783</v>
+      </c>
+      <c r="F476">
+        <v>211234</v>
+      </c>
+      <c r="G476">
+        <v>30211234</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="s">
+        <v>129</v>
+      </c>
+      <c r="B477" t="s">
+        <v>11</v>
+      </c>
+      <c r="C477">
+        <v>0</v>
+      </c>
+      <c r="D477">
+        <v>30</v>
+      </c>
+      <c r="E477">
+        <v>0.4237124705882353</v>
+      </c>
+      <c r="F477">
+        <v>208734</v>
+      </c>
+      <c r="G477">
+        <v>30208734</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="s">
+        <v>130</v>
+      </c>
+      <c r="B478" t="s">
+        <v>8</v>
+      </c>
+      <c r="C478">
+        <v>0</v>
+      </c>
+      <c r="D478">
+        <v>29</v>
+      </c>
+      <c r="E478">
+        <v>0.3903349019607843</v>
+      </c>
+      <c r="F478">
+        <v>154184</v>
+      </c>
+      <c r="G478">
+        <v>29154184</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="s">
+        <v>130</v>
+      </c>
+      <c r="B479" t="s">
+        <v>9</v>
+      </c>
+      <c r="C479">
+        <v>0</v>
+      </c>
+      <c r="D479">
+        <v>30</v>
+      </c>
+      <c r="E479">
+        <v>0.3903349019607843</v>
+      </c>
+      <c r="F479">
+        <v>158640</v>
+      </c>
+      <c r="G479">
+        <v>30158640</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="s">
+        <v>130</v>
+      </c>
+      <c r="B480" t="s">
+        <v>10</v>
+      </c>
+      <c r="C480">
+        <v>0</v>
+      </c>
+      <c r="D480">
+        <v>29</v>
+      </c>
+      <c r="E480">
+        <v>0.39035623529411767</v>
+      </c>
+      <c r="F480">
+        <v>154217</v>
+      </c>
+      <c r="G480">
+        <v>29154217</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="s">
+        <v>130</v>
+      </c>
+      <c r="B481" t="s">
+        <v>11</v>
+      </c>
+      <c r="C481">
+        <v>0</v>
+      </c>
+      <c r="D481">
+        <v>29</v>
+      </c>
+      <c r="E481">
+        <v>0.3903349019607843</v>
+      </c>
+      <c r="F481">
+        <v>157288</v>
+      </c>
+      <c r="G481">
+        <v>29157288</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="s">
+        <v>131</v>
+      </c>
+      <c r="B482" t="s">
+        <v>8</v>
+      </c>
+      <c r="C482">
+        <v>0</v>
+      </c>
+      <c r="D482">
+        <v>30</v>
+      </c>
+      <c r="E482">
+        <v>0.46974729411764704</v>
+      </c>
+      <c r="F482">
+        <v>177628</v>
+      </c>
+      <c r="G482">
+        <v>30177628</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="s">
+        <v>131</v>
+      </c>
+      <c r="B483" t="s">
+        <v>9</v>
+      </c>
+      <c r="C483">
+        <v>0</v>
+      </c>
+      <c r="D483">
+        <v>30</v>
+      </c>
+      <c r="E483">
+        <v>0.46974729411764704</v>
+      </c>
+      <c r="F483">
+        <v>176942</v>
+      </c>
+      <c r="G483">
+        <v>30176942</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="s">
+        <v>131</v>
+      </c>
+      <c r="B484" t="s">
+        <v>10</v>
+      </c>
+      <c r="C484">
+        <v>0</v>
+      </c>
+      <c r="D484">
+        <v>30</v>
+      </c>
+      <c r="E484">
+        <v>0.4697596862745098</v>
+      </c>
+      <c r="F484">
+        <v>182878</v>
+      </c>
+      <c r="G484">
+        <v>30182878</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="s">
+        <v>131</v>
+      </c>
+      <c r="B485" t="s">
+        <v>11</v>
+      </c>
+      <c r="C485">
+        <v>0</v>
+      </c>
+      <c r="D485">
+        <v>30</v>
+      </c>
+      <c r="E485">
+        <v>0.46974729411764704</v>
+      </c>
+      <c r="F485">
+        <v>186338</v>
+      </c>
+      <c r="G485">
+        <v>30186338</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="s">
+        <v>132</v>
+      </c>
+      <c r="B486" t="s">
+        <v>8</v>
+      </c>
+      <c r="C486">
+        <v>0</v>
+      </c>
+      <c r="D486">
+        <v>30</v>
+      </c>
+      <c r="E486">
+        <v>0.35765976470588234</v>
+      </c>
+      <c r="F486">
+        <v>166091</v>
+      </c>
+      <c r="G486">
+        <v>30166091</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="s">
+        <v>132</v>
+      </c>
+      <c r="B487" t="s">
+        <v>9</v>
+      </c>
+      <c r="C487">
+        <v>0</v>
+      </c>
+      <c r="D487">
+        <v>30</v>
+      </c>
+      <c r="E487">
+        <v>0.35765976470588234</v>
+      </c>
+      <c r="F487">
+        <v>169293</v>
+      </c>
+      <c r="G487">
+        <v>30169293</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="s">
+        <v>132</v>
+      </c>
+      <c r="B488" t="s">
+        <v>10</v>
+      </c>
+      <c r="C488">
+        <v>0</v>
+      </c>
+      <c r="D488">
+        <v>30</v>
+      </c>
+      <c r="E488">
+        <v>0.35769035294117646</v>
+      </c>
+      <c r="F488">
+        <v>167463</v>
+      </c>
+      <c r="G488">
+        <v>30167463</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="s">
+        <v>132</v>
+      </c>
+      <c r="B489" t="s">
+        <v>11</v>
+      </c>
+      <c r="C489">
+        <v>0</v>
+      </c>
+      <c r="D489">
+        <v>30</v>
+      </c>
+      <c r="E489">
+        <v>0.35765976470588234</v>
+      </c>
+      <c r="F489">
+        <v>166661</v>
+      </c>
+      <c r="G489">
+        <v>30166661</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="s">
+        <v>133</v>
+      </c>
+      <c r="B490" t="s">
+        <v>8</v>
+      </c>
+      <c r="C490">
+        <v>0</v>
+      </c>
+      <c r="D490">
+        <v>24</v>
+      </c>
+      <c r="E490">
+        <v>0.49498007843137254</v>
+      </c>
+      <c r="F490">
+        <v>116052</v>
+      </c>
+      <c r="G490">
+        <v>24116052</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="s">
+        <v>133</v>
+      </c>
+      <c r="B491" t="s">
+        <v>9</v>
+      </c>
+      <c r="C491">
+        <v>0</v>
+      </c>
+      <c r="D491">
+        <v>25</v>
+      </c>
+      <c r="E491">
+        <v>0.49498007843137254</v>
+      </c>
+      <c r="F491">
+        <v>117415</v>
+      </c>
+      <c r="G491">
+        <v>25117415</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="s">
+        <v>133</v>
+      </c>
+      <c r="B492" t="s">
+        <v>10</v>
+      </c>
+      <c r="C492">
+        <v>0</v>
+      </c>
+      <c r="D492">
+        <v>26</v>
+      </c>
+      <c r="E492">
+        <v>0.4950089411764706</v>
+      </c>
+      <c r="F492">
+        <v>107773</v>
+      </c>
+      <c r="G492">
+        <v>26107773</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="s">
+        <v>133</v>
+      </c>
+      <c r="B493" t="s">
+        <v>11</v>
+      </c>
+      <c r="C493">
+        <v>0</v>
+      </c>
+      <c r="D493">
+        <v>25</v>
+      </c>
+      <c r="E493">
+        <v>0.49498007843137254</v>
+      </c>
+      <c r="F493">
+        <v>111390</v>
+      </c>
+      <c r="G493">
+        <v>25111390</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="s">
+        <v>134</v>
+      </c>
+      <c r="B494" t="s">
+        <v>8</v>
+      </c>
+      <c r="C494">
+        <v>0</v>
+      </c>
+      <c r="D494">
+        <v>30</v>
+      </c>
+      <c r="E494">
+        <v>0.47355686274509806</v>
+      </c>
+      <c r="F494">
+        <v>225250</v>
+      </c>
+      <c r="G494">
+        <v>30225250</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="s">
+        <v>134</v>
+      </c>
+      <c r="B495" t="s">
+        <v>9</v>
+      </c>
+      <c r="C495">
+        <v>0</v>
+      </c>
+      <c r="D495">
+        <v>30</v>
+      </c>
+      <c r="E495">
+        <v>0.47355686274509806</v>
+      </c>
+      <c r="F495">
+        <v>218904</v>
+      </c>
+      <c r="G495">
+        <v>30218904</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="s">
+        <v>134</v>
+      </c>
+      <c r="B496" t="s">
+        <v>10</v>
+      </c>
+      <c r="C496">
+        <v>0</v>
+      </c>
+      <c r="D496">
+        <v>30</v>
+      </c>
+      <c r="E496">
+        <v>0.4736166274509804</v>
+      </c>
+      <c r="F496">
+        <v>231423</v>
+      </c>
+      <c r="G496">
+        <v>30231423</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="s">
+        <v>134</v>
+      </c>
+      <c r="B497" t="s">
+        <v>11</v>
+      </c>
+      <c r="C497">
+        <v>0</v>
+      </c>
+      <c r="D497">
+        <v>30</v>
+      </c>
+      <c r="E497">
+        <v>0.47355686274509806</v>
+      </c>
+      <c r="F497">
+        <v>235326</v>
+      </c>
+      <c r="G497">
+        <v>30235326</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="s">
+        <v>135</v>
+      </c>
+      <c r="B498" t="s">
+        <v>8</v>
+      </c>
+      <c r="C498">
+        <v>0</v>
+      </c>
+      <c r="D498">
+        <v>29</v>
+      </c>
+      <c r="E498">
+        <v>0.41570713725490194</v>
+      </c>
+      <c r="F498">
+        <v>208719</v>
+      </c>
+      <c r="G498">
+        <v>29208719</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="s">
+        <v>135</v>
+      </c>
+      <c r="B499" t="s">
+        <v>9</v>
+      </c>
+      <c r="C499">
+        <v>0</v>
+      </c>
+      <c r="D499">
+        <v>29</v>
+      </c>
+      <c r="E499">
+        <v>0.41570713725490194</v>
+      </c>
+      <c r="F499">
+        <v>217210</v>
+      </c>
+      <c r="G499">
+        <v>29217210</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="s">
+        <v>135</v>
+      </c>
+      <c r="B500" t="s">
+        <v>10</v>
+      </c>
+      <c r="C500">
+        <v>0</v>
+      </c>
+      <c r="D500">
+        <v>29</v>
+      </c>
+      <c r="E500">
+        <v>0.4157325490196078</v>
+      </c>
+      <c r="F500">
+        <v>211562</v>
+      </c>
+      <c r="G500">
+        <v>29211562</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="s">
+        <v>135</v>
+      </c>
+      <c r="B501" t="s">
+        <v>11</v>
+      </c>
+      <c r="C501">
+        <v>0</v>
+      </c>
+      <c r="D501">
+        <v>29</v>
+      </c>
+      <c r="E501">
+        <v>0.41570713725490194</v>
+      </c>
+      <c r="F501">
+        <v>217844</v>
+      </c>
+      <c r="G501">
+        <v>29217844</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="s">
+        <v>136</v>
+      </c>
+      <c r="B502" t="s">
+        <v>8</v>
+      </c>
+      <c r="C502">
+        <v>0</v>
+      </c>
+      <c r="D502">
+        <v>30</v>
+      </c>
+      <c r="E502">
+        <v>0.22846086274509803</v>
+      </c>
+      <c r="F502">
+        <v>178653</v>
+      </c>
+      <c r="G502">
+        <v>30178653</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="s">
+        <v>136</v>
+      </c>
+      <c r="B503" t="s">
+        <v>9</v>
+      </c>
+      <c r="C503">
+        <v>0</v>
+      </c>
+      <c r="D503">
+        <v>30</v>
+      </c>
+      <c r="E503">
+        <v>0.22846086274509803</v>
+      </c>
+      <c r="F503">
+        <v>180927</v>
+      </c>
+      <c r="G503">
+        <v>30180927</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="s">
+        <v>136</v>
+      </c>
+      <c r="B504" t="s">
+        <v>10</v>
+      </c>
+      <c r="C504">
+        <v>0</v>
+      </c>
+      <c r="D504">
+        <v>30</v>
+      </c>
+      <c r="E504">
+        <v>0.22847403921568626</v>
+      </c>
+      <c r="F504">
+        <v>176989</v>
+      </c>
+      <c r="G504">
+        <v>30176989</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="s">
+        <v>136</v>
+      </c>
+      <c r="B505" t="s">
+        <v>11</v>
+      </c>
+      <c r="C505">
+        <v>0</v>
+      </c>
+      <c r="D505">
+        <v>30</v>
+      </c>
+      <c r="E505">
+        <v>0.22846086274509803</v>
+      </c>
+      <c r="F505">
+        <v>171120</v>
+      </c>
+      <c r="G505">
+        <v>30171120</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="s">
+        <v>137</v>
+      </c>
+      <c r="B506" t="s">
+        <v>8</v>
+      </c>
+      <c r="C506">
+        <v>0</v>
+      </c>
+      <c r="D506">
+        <v>30</v>
+      </c>
+      <c r="E506">
+        <v>0.21184564705882353</v>
+      </c>
+      <c r="F506">
+        <v>179820</v>
+      </c>
+      <c r="G506">
+        <v>30179820</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="s">
+        <v>137</v>
+      </c>
+      <c r="B507" t="s">
+        <v>9</v>
+      </c>
+      <c r="C507">
+        <v>0</v>
+      </c>
+      <c r="D507">
+        <v>30</v>
+      </c>
+      <c r="E507">
+        <v>0.21184564705882353</v>
+      </c>
+      <c r="F507">
+        <v>166457</v>
+      </c>
+      <c r="G507">
+        <v>30166457</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="s">
+        <v>137</v>
+      </c>
+      <c r="B508" t="s">
+        <v>10</v>
+      </c>
+      <c r="C508">
+        <v>0</v>
+      </c>
+      <c r="D508">
+        <v>30</v>
+      </c>
+      <c r="E508">
+        <v>0.21185725490196078</v>
+      </c>
+      <c r="F508">
+        <v>163889</v>
+      </c>
+      <c r="G508">
+        <v>30163889</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="s">
+        <v>137</v>
+      </c>
+      <c r="B509" t="s">
+        <v>11</v>
+      </c>
+      <c r="C509">
+        <v>0</v>
+      </c>
+      <c r="D509">
+        <v>30</v>
+      </c>
+      <c r="E509">
+        <v>0.21184564705882353</v>
+      </c>
+      <c r="F509">
+        <v>174170</v>
+      </c>
+      <c r="G509">
+        <v>30174170</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="s">
+        <v>138</v>
+      </c>
+      <c r="B510" t="s">
+        <v>8</v>
+      </c>
+      <c r="C510">
+        <v>0</v>
+      </c>
+      <c r="D510">
+        <v>30</v>
+      </c>
+      <c r="E510">
+        <v>0.23077396078431373</v>
+      </c>
+      <c r="F510">
+        <v>158149</v>
+      </c>
+      <c r="G510">
+        <v>30158149</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="s">
+        <v>138</v>
+      </c>
+      <c r="B511" t="s">
+        <v>9</v>
+      </c>
+      <c r="C511">
+        <v>0</v>
+      </c>
+      <c r="D511">
+        <v>30</v>
+      </c>
+      <c r="E511">
+        <v>0.23077396078431373</v>
+      </c>
+      <c r="F511">
+        <v>158749</v>
+      </c>
+      <c r="G511">
+        <v>30158749</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="s">
+        <v>138</v>
+      </c>
+      <c r="B512" t="s">
+        <v>10</v>
+      </c>
+      <c r="C512">
+        <v>0</v>
+      </c>
+      <c r="D512">
+        <v>30</v>
+      </c>
+      <c r="E512">
+        <v>0.23079764705882352</v>
+      </c>
+      <c r="F512">
+        <v>151479</v>
+      </c>
+      <c r="G512">
+        <v>30151479</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="s">
+        <v>138</v>
+      </c>
+      <c r="B513" t="s">
+        <v>11</v>
+      </c>
+      <c r="C513">
+        <v>0</v>
+      </c>
+      <c r="D513">
+        <v>30</v>
+      </c>
+      <c r="E513">
+        <v>0.23077396078431373</v>
+      </c>
+      <c r="F513">
+        <v>155097</v>
+      </c>
+      <c r="G513">
+        <v>30155097</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="s">
+        <v>139</v>
+      </c>
+      <c r="B514" t="s">
+        <v>8</v>
+      </c>
+      <c r="C514">
+        <v>0</v>
+      </c>
+      <c r="D514">
+        <v>29</v>
+      </c>
+      <c r="E514">
+        <v>238683900</v>
+      </c>
+      <c r="F514">
+        <v>140370</v>
+      </c>
+      <c r="G514">
+        <v>29140370</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="s">
+        <v>139</v>
+      </c>
+      <c r="B515" t="s">
+        <v>9</v>
+      </c>
+      <c r="C515">
+        <v>0</v>
+      </c>
+      <c r="D515">
+        <v>30</v>
+      </c>
+      <c r="E515">
+        <v>238683900</v>
+      </c>
+      <c r="F515">
+        <v>142102</v>
+      </c>
+      <c r="G515">
+        <v>30142102</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="s">
+        <v>139</v>
+      </c>
+      <c r="B516" t="s">
+        <v>10</v>
+      </c>
+      <c r="C516">
+        <v>0</v>
+      </c>
+      <c r="D516">
+        <v>30</v>
+      </c>
+      <c r="E516">
+        <v>238701600</v>
+      </c>
+      <c r="F516">
+        <v>141179</v>
+      </c>
+      <c r="G516">
+        <v>30141179</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="s">
+        <v>139</v>
+      </c>
+      <c r="B517" t="s">
+        <v>11</v>
+      </c>
+      <c r="C517">
+        <v>0</v>
+      </c>
+      <c r="D517">
+        <v>29</v>
+      </c>
+      <c r="E517">
+        <v>238683900</v>
+      </c>
+      <c r="F517">
+        <v>142781</v>
+      </c>
+      <c r="G517">
+        <v>29142781</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="s">
+        <v>140</v>
+      </c>
+      <c r="B518" t="s">
+        <v>8</v>
+      </c>
+      <c r="C518">
+        <v>0</v>
+      </c>
+      <c r="D518">
+        <v>30</v>
+      </c>
+      <c r="E518">
+        <v>252368400</v>
+      </c>
+      <c r="F518">
+        <v>192976</v>
+      </c>
+      <c r="G518">
+        <v>30192976</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="s">
+        <v>140</v>
+      </c>
+      <c r="B519" t="s">
+        <v>9</v>
+      </c>
+      <c r="C519">
+        <v>0</v>
+      </c>
+      <c r="D519">
+        <v>28</v>
+      </c>
+      <c r="E519">
+        <v>252368400</v>
+      </c>
+      <c r="F519">
+        <v>192702</v>
+      </c>
+      <c r="G519">
+        <v>28192702</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="s">
+        <v>140</v>
+      </c>
+      <c r="B520" t="s">
+        <v>10</v>
+      </c>
+      <c r="C520">
+        <v>0</v>
+      </c>
+      <c r="D520">
+        <v>30</v>
+      </c>
+      <c r="E520">
+        <v>252422800</v>
+      </c>
+      <c r="F520">
+        <v>196334</v>
+      </c>
+      <c r="G520">
+        <v>30196334</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="s">
+        <v>140</v>
+      </c>
+      <c r="B521" t="s">
+        <v>11</v>
+      </c>
+      <c r="C521">
+        <v>0</v>
+      </c>
+      <c r="D521">
+        <v>30</v>
+      </c>
+      <c r="E521">
+        <v>252368400</v>
+      </c>
+      <c r="F521">
+        <v>195482</v>
+      </c>
+      <c r="G521">
+        <v>30195482</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="s">
+        <v>141</v>
+      </c>
+      <c r="B522" t="s">
+        <v>8</v>
+      </c>
+      <c r="C522">
+        <v>0</v>
+      </c>
+      <c r="D522">
+        <v>30</v>
+      </c>
+      <c r="E522">
+        <v>256735600</v>
+      </c>
+      <c r="F522">
+        <v>152567</v>
+      </c>
+      <c r="G522">
+        <v>30152567</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="s">
+        <v>141</v>
+      </c>
+      <c r="B523" t="s">
+        <v>9</v>
+      </c>
+      <c r="C523">
+        <v>0</v>
+      </c>
+      <c r="D523">
+        <v>30</v>
+      </c>
+      <c r="E523">
+        <v>256735600</v>
+      </c>
+      <c r="F523">
+        <v>157080</v>
+      </c>
+      <c r="G523">
+        <v>30157080</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="s">
+        <v>141</v>
+      </c>
+      <c r="B524" t="s">
+        <v>10</v>
+      </c>
+      <c r="C524">
+        <v>0</v>
+      </c>
+      <c r="D524">
+        <v>29</v>
+      </c>
+      <c r="E524">
+        <v>256745400</v>
+      </c>
+      <c r="F524">
+        <v>159921</v>
+      </c>
+      <c r="G524">
+        <v>29159921</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="s">
+        <v>141</v>
+      </c>
+      <c r="B525" t="s">
+        <v>11</v>
+      </c>
+      <c r="C525">
+        <v>0</v>
+      </c>
+      <c r="D525">
+        <v>30</v>
+      </c>
+      <c r="E525">
+        <v>256735600</v>
+      </c>
+      <c r="F525">
+        <v>157667</v>
+      </c>
+      <c r="G525">
+        <v>30157667</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="s">
+        <v>142</v>
+      </c>
+      <c r="B526" t="s">
+        <v>8</v>
+      </c>
+      <c r="C526">
+        <v>0</v>
+      </c>
+      <c r="D526">
+        <v>19</v>
+      </c>
+      <c r="E526">
+        <v>198430800</v>
+      </c>
+      <c r="F526">
+        <v>73704</v>
+      </c>
+      <c r="G526">
+        <v>19073704</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="s">
+        <v>142</v>
+      </c>
+      <c r="B527" t="s">
+        <v>9</v>
+      </c>
+      <c r="C527">
+        <v>0</v>
+      </c>
+      <c r="D527">
+        <v>17</v>
+      </c>
+      <c r="E527">
+        <v>198430800</v>
+      </c>
+      <c r="F527">
+        <v>73138</v>
+      </c>
+      <c r="G527">
+        <v>17073138</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="s">
+        <v>142</v>
+      </c>
+      <c r="B528" t="s">
+        <v>10</v>
+      </c>
+      <c r="C528">
+        <v>0</v>
+      </c>
+      <c r="D528">
+        <v>20</v>
+      </c>
+      <c r="E528">
+        <v>198437900</v>
+      </c>
+      <c r="F528">
+        <v>84474</v>
+      </c>
+      <c r="G528">
+        <v>20084474</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="s">
+        <v>142</v>
+      </c>
+      <c r="B529" t="s">
+        <v>11</v>
+      </c>
+      <c r="C529">
+        <v>0</v>
+      </c>
+      <c r="D529">
+        <v>20</v>
+      </c>
+      <c r="E529">
+        <v>198430800</v>
+      </c>
+      <c r="F529">
+        <v>78012</v>
+      </c>
+      <c r="G529">
+        <v>20078012</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="s">
+        <v>143</v>
+      </c>
+      <c r="B530" t="s">
+        <v>8</v>
+      </c>
+      <c r="C530">
+        <v>0</v>
+      </c>
+      <c r="D530">
+        <v>19</v>
+      </c>
+      <c r="E530">
+        <v>199273300</v>
+      </c>
+      <c r="F530">
+        <v>70151</v>
+      </c>
+      <c r="G530">
+        <v>19070151</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="s">
+        <v>143</v>
+      </c>
+      <c r="B531" t="s">
+        <v>9</v>
+      </c>
+      <c r="C531">
+        <v>0</v>
+      </c>
+      <c r="D531">
+        <v>20</v>
+      </c>
+      <c r="E531">
+        <v>199273300</v>
+      </c>
+      <c r="F531">
+        <v>72691</v>
+      </c>
+      <c r="G531">
+        <v>20072691</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="s">
+        <v>143</v>
+      </c>
+      <c r="B532" t="s">
+        <v>10</v>
+      </c>
+      <c r="C532">
+        <v>0</v>
+      </c>
+      <c r="D532">
+        <v>19</v>
+      </c>
+      <c r="E532">
+        <v>199317600</v>
+      </c>
+      <c r="F532">
+        <v>66582</v>
+      </c>
+      <c r="G532">
+        <v>19066582</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="s">
+        <v>143</v>
+      </c>
+      <c r="B533" t="s">
+        <v>11</v>
+      </c>
+      <c r="C533">
+        <v>0</v>
+      </c>
+      <c r="D533">
+        <v>20</v>
+      </c>
+      <c r="E533">
+        <v>199273300</v>
+      </c>
+      <c r="F533">
+        <v>72185</v>
+      </c>
+      <c r="G533">
+        <v>20072185</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="s">
+        <v>144</v>
+      </c>
+      <c r="B534" t="s">
+        <v>8</v>
+      </c>
+      <c r="C534">
+        <v>0</v>
+      </c>
+      <c r="D534">
+        <v>19</v>
+      </c>
+      <c r="E534">
+        <v>187364700</v>
+      </c>
+      <c r="F534">
+        <v>73003</v>
+      </c>
+      <c r="G534">
+        <v>19073003</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="s">
+        <v>144</v>
+      </c>
+      <c r="B535" t="s">
+        <v>9</v>
+      </c>
+      <c r="C535">
+        <v>0</v>
+      </c>
+      <c r="D535">
+        <v>19</v>
+      </c>
+      <c r="E535">
+        <v>187364700</v>
+      </c>
+      <c r="F535">
+        <v>74074</v>
+      </c>
+      <c r="G535">
+        <v>19074074</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="s">
+        <v>144</v>
+      </c>
+      <c r="B536" t="s">
+        <v>10</v>
+      </c>
+      <c r="C536">
+        <v>0</v>
+      </c>
+      <c r="D536">
+        <v>21</v>
+      </c>
+      <c r="E536">
+        <v>187383400</v>
+      </c>
+      <c r="F536">
+        <v>73239</v>
+      </c>
+      <c r="G536">
+        <v>21073239</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="s">
+        <v>144</v>
+      </c>
+      <c r="B537" t="s">
+        <v>11</v>
+      </c>
+      <c r="C537">
+        <v>0</v>
+      </c>
+      <c r="D537">
+        <v>19</v>
+      </c>
+      <c r="E537">
+        <v>187364700</v>
+      </c>
+      <c r="F537">
+        <v>75273</v>
+      </c>
+      <c r="G537">
+        <v>19075273</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="s">
+        <v>145</v>
+      </c>
+      <c r="B538" t="s">
+        <v>8</v>
+      </c>
+      <c r="C538">
+        <v>0</v>
+      </c>
+      <c r="D538">
+        <v>14</v>
+      </c>
+      <c r="E538">
+        <v>181878700</v>
+      </c>
+      <c r="F538">
+        <v>58999</v>
+      </c>
+      <c r="G538">
+        <v>14058999</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="s">
+        <v>145</v>
+      </c>
+      <c r="B539" t="s">
+        <v>9</v>
+      </c>
+      <c r="C539">
+        <v>0</v>
+      </c>
+      <c r="D539">
+        <v>12</v>
+      </c>
+      <c r="E539">
+        <v>181878700</v>
+      </c>
+      <c r="F539">
+        <v>54149</v>
+      </c>
+      <c r="G539">
+        <v>12054149</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="s">
+        <v>145</v>
+      </c>
+      <c r="B540" t="s">
+        <v>10</v>
+      </c>
+      <c r="C540">
+        <v>0</v>
+      </c>
+      <c r="D540">
+        <v>12</v>
+      </c>
+      <c r="E540">
+        <v>181893100</v>
+      </c>
+      <c r="F540">
+        <v>58377</v>
+      </c>
+      <c r="G540">
+        <v>12058377</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="s">
+        <v>145</v>
+      </c>
+      <c r="B541" t="s">
+        <v>11</v>
+      </c>
+      <c r="C541">
+        <v>0</v>
+      </c>
+      <c r="D541">
+        <v>14</v>
+      </c>
+      <c r="E541">
+        <v>181878700</v>
+      </c>
+      <c r="F541">
+        <v>57211</v>
+      </c>
+      <c r="G541">
+        <v>14057211</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="s">
+        <v>146</v>
+      </c>
+      <c r="B542" t="s">
+        <v>8</v>
+      </c>
+      <c r="C542">
+        <v>0</v>
+      </c>
+      <c r="D542">
+        <v>18</v>
+      </c>
+      <c r="E542">
+        <v>201360900</v>
+      </c>
+      <c r="F542">
+        <v>62348</v>
+      </c>
+      <c r="G542">
+        <v>18062348</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="s">
+        <v>146</v>
+      </c>
+      <c r="B543" t="s">
+        <v>9</v>
+      </c>
+      <c r="C543">
+        <v>0</v>
+      </c>
+      <c r="D543">
+        <v>18</v>
+      </c>
+      <c r="E543">
+        <v>201360900</v>
+      </c>
+      <c r="F543">
+        <v>62481</v>
+      </c>
+      <c r="G543">
+        <v>18062481</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="s">
+        <v>146</v>
+      </c>
+      <c r="B544" t="s">
+        <v>10</v>
+      </c>
+      <c r="C544">
+        <v>0</v>
+      </c>
+      <c r="D544">
+        <v>15</v>
+      </c>
+      <c r="E544">
+        <v>201375500</v>
+      </c>
+      <c r="F544">
+        <v>62605</v>
+      </c>
+      <c r="G544">
+        <v>15062605</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="s">
+        <v>146</v>
+      </c>
+      <c r="B545" t="s">
+        <v>11</v>
+      </c>
+      <c r="C545">
+        <v>0</v>
+      </c>
+      <c r="D545">
+        <v>18</v>
+      </c>
+      <c r="E545">
+        <v>201360900</v>
+      </c>
+      <c r="F545">
+        <v>64079</v>
+      </c>
+      <c r="G545">
+        <v>18064079</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="s">
+        <v>147</v>
+      </c>
+      <c r="B546" t="s">
+        <v>8</v>
+      </c>
+      <c r="C546">
+        <v>0</v>
+      </c>
+      <c r="D546">
+        <v>28</v>
+      </c>
+      <c r="E546">
+        <v>285524100</v>
+      </c>
+      <c r="F546">
+        <v>175638</v>
+      </c>
+      <c r="G546">
+        <v>28175638</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="s">
+        <v>147</v>
+      </c>
+      <c r="B547" t="s">
+        <v>9</v>
+      </c>
+      <c r="C547">
+        <v>0</v>
+      </c>
+      <c r="D547">
+        <v>29</v>
+      </c>
+      <c r="E547">
+        <v>285524100</v>
+      </c>
+      <c r="F547">
+        <v>175031</v>
+      </c>
+      <c r="G547">
+        <v>29175031</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="s">
+        <v>147</v>
+      </c>
+      <c r="B548" t="s">
+        <v>10</v>
+      </c>
+      <c r="C548">
+        <v>0</v>
+      </c>
+      <c r="D548">
+        <v>29</v>
+      </c>
+      <c r="E548">
+        <v>285537200</v>
+      </c>
+      <c r="F548">
+        <v>171736</v>
+      </c>
+      <c r="G548">
+        <v>29171736</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="s">
+        <v>147</v>
+      </c>
+      <c r="B549" t="s">
+        <v>11</v>
+      </c>
+      <c r="C549">
+        <v>0</v>
+      </c>
+      <c r="D549">
+        <v>30</v>
+      </c>
+      <c r="E549">
+        <v>285524100</v>
+      </c>
+      <c r="F549">
+        <v>184507</v>
+      </c>
+      <c r="G549">
+        <v>30184507</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="s">
+        <v>148</v>
+      </c>
+      <c r="B550" t="s">
+        <v>8</v>
+      </c>
+      <c r="C550">
+        <v>0</v>
+      </c>
+      <c r="D550">
+        <v>30</v>
+      </c>
+      <c r="E550">
+        <v>288887400</v>
+      </c>
+      <c r="F550">
+        <v>190303</v>
+      </c>
+      <c r="G550">
+        <v>30190303</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="s">
+        <v>148</v>
+      </c>
+      <c r="B551" t="s">
+        <v>9</v>
+      </c>
+      <c r="C551">
+        <v>0</v>
+      </c>
+      <c r="D551">
+        <v>30</v>
+      </c>
+      <c r="E551">
+        <v>288887400</v>
+      </c>
+      <c r="F551">
+        <v>206615</v>
+      </c>
+      <c r="G551">
+        <v>30206615</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="s">
+        <v>148</v>
+      </c>
+      <c r="B552" t="s">
+        <v>10</v>
+      </c>
+      <c r="C552">
+        <v>0</v>
+      </c>
+      <c r="D552">
+        <v>30</v>
+      </c>
+      <c r="E552">
+        <v>288898700</v>
+      </c>
+      <c r="F552">
+        <v>191476</v>
+      </c>
+      <c r="G552">
+        <v>30191476</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="s">
+        <v>148</v>
+      </c>
+      <c r="B553" t="s">
+        <v>11</v>
+      </c>
+      <c r="C553">
+        <v>0</v>
+      </c>
+      <c r="D553">
+        <v>30</v>
+      </c>
+      <c r="E553">
+        <v>288887400</v>
+      </c>
+      <c r="F553">
+        <v>191629</v>
+      </c>
+      <c r="G553">
+        <v>30191629</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="s">
+        <v>149</v>
+      </c>
+      <c r="B554" t="s">
+        <v>8</v>
+      </c>
+      <c r="C554">
+        <v>0</v>
+      </c>
+      <c r="D554">
+        <v>30</v>
+      </c>
+      <c r="E554">
+        <v>301843400</v>
+      </c>
+      <c r="F554">
+        <v>221070</v>
+      </c>
+      <c r="G554">
+        <v>30221070</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="s">
+        <v>149</v>
+      </c>
+      <c r="B555" t="s">
+        <v>9</v>
+      </c>
+      <c r="C555">
+        <v>0</v>
+      </c>
+      <c r="D555">
+        <v>30</v>
+      </c>
+      <c r="E555">
+        <v>301843400</v>
+      </c>
+      <c r="F555">
+        <v>218428</v>
+      </c>
+      <c r="G555">
+        <v>30218428</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="s">
+        <v>149</v>
+      </c>
+      <c r="B556" t="s">
+        <v>10</v>
+      </c>
+      <c r="C556">
+        <v>0</v>
+      </c>
+      <c r="D556">
+        <v>30</v>
+      </c>
+      <c r="E556">
+        <v>301854700</v>
+      </c>
+      <c r="F556">
+        <v>214477</v>
+      </c>
+      <c r="G556">
+        <v>30214477</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="s">
+        <v>149</v>
+      </c>
+      <c r="B557" t="s">
+        <v>11</v>
+      </c>
+      <c r="C557">
+        <v>0</v>
+      </c>
+      <c r="D557">
+        <v>30</v>
+      </c>
+      <c r="E557">
+        <v>301843400</v>
+      </c>
+      <c r="F557">
+        <v>215767</v>
+      </c>
+      <c r="G557">
+        <v>30215767</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="s">
+        <v>150</v>
+      </c>
+      <c r="B558" t="s">
+        <v>8</v>
+      </c>
+      <c r="C558">
+        <v>0</v>
+      </c>
+      <c r="D558">
+        <v>29</v>
+      </c>
+      <c r="E558">
+        <v>283811900</v>
+      </c>
+      <c r="F558">
+        <v>235842</v>
+      </c>
+      <c r="G558">
+        <v>29235842</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="s">
+        <v>150</v>
+      </c>
+      <c r="B559" t="s">
+        <v>9</v>
+      </c>
+      <c r="C559">
+        <v>0</v>
+      </c>
+      <c r="D559">
+        <v>29</v>
+      </c>
+      <c r="E559">
+        <v>283811900</v>
+      </c>
+      <c r="F559">
+        <v>231328</v>
+      </c>
+      <c r="G559">
+        <v>29231328</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="s">
+        <v>150</v>
+      </c>
+      <c r="B560" t="s">
+        <v>10</v>
+      </c>
+      <c r="C560">
+        <v>0</v>
+      </c>
+      <c r="D560">
+        <v>29</v>
+      </c>
+      <c r="E560">
+        <v>283819900</v>
+      </c>
+      <c r="F560">
+        <v>228876</v>
+      </c>
+      <c r="G560">
+        <v>29228876</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="s">
+        <v>150</v>
+      </c>
+      <c r="B561" t="s">
+        <v>11</v>
+      </c>
+      <c r="C561">
+        <v>0</v>
+      </c>
+      <c r="D561">
+        <v>29</v>
+      </c>
+      <c r="E561">
+        <v>283811900</v>
+      </c>
+      <c r="F561">
+        <v>238413</v>
+      </c>
+      <c r="G561">
+        <v>29238413</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="s">
+        <v>151</v>
+      </c>
+      <c r="B562" t="s">
+        <v>8</v>
+      </c>
+      <c r="C562">
+        <v>0</v>
+      </c>
+      <c r="D562">
+        <v>30</v>
+      </c>
+      <c r="E562">
+        <v>274591900</v>
+      </c>
+      <c r="F562">
+        <v>197969</v>
+      </c>
+      <c r="G562">
+        <v>30197969</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="s">
+        <v>151</v>
+      </c>
+      <c r="B563" t="s">
+        <v>9</v>
+      </c>
+      <c r="C563">
+        <v>0</v>
+      </c>
+      <c r="D563">
+        <v>30</v>
+      </c>
+      <c r="E563">
+        <v>274591900</v>
+      </c>
+      <c r="F563">
+        <v>200359</v>
+      </c>
+      <c r="G563">
+        <v>30200359</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="s">
+        <v>151</v>
+      </c>
+      <c r="B564" t="s">
+        <v>10</v>
+      </c>
+      <c r="C564">
+        <v>0</v>
+      </c>
+      <c r="D564">
+        <v>30</v>
+      </c>
+      <c r="E564">
+        <v>274616000</v>
+      </c>
+      <c r="F564">
+        <v>203393</v>
+      </c>
+      <c r="G564">
+        <v>30203393</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="s">
+        <v>151</v>
+      </c>
+      <c r="B565" t="s">
+        <v>11</v>
+      </c>
+      <c r="C565">
+        <v>0</v>
+      </c>
+      <c r="D565">
+        <v>30</v>
+      </c>
+      <c r="E565">
+        <v>274591900</v>
+      </c>
+      <c r="F565">
+        <v>197930</v>
+      </c>
+      <c r="G565">
+        <v>30197930</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="s">
+        <v>152</v>
+      </c>
+      <c r="B566" t="s">
+        <v>8</v>
+      </c>
+      <c r="C566">
+        <v>0</v>
+      </c>
+      <c r="D566">
+        <v>30</v>
+      </c>
+      <c r="E566">
+        <v>290159500</v>
+      </c>
+      <c r="F566">
+        <v>236696</v>
+      </c>
+      <c r="G566">
+        <v>30236696</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="s">
+        <v>152</v>
+      </c>
+      <c r="B567" t="s">
+        <v>9</v>
+      </c>
+      <c r="C567">
+        <v>0</v>
+      </c>
+      <c r="D567">
+        <v>30</v>
+      </c>
+      <c r="E567">
+        <v>290159500</v>
+      </c>
+      <c r="F567">
+        <v>219421</v>
+      </c>
+      <c r="G567">
+        <v>30219421</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="s">
+        <v>152</v>
+      </c>
+      <c r="B568" t="s">
+        <v>10</v>
+      </c>
+      <c r="C568">
+        <v>0</v>
+      </c>
+      <c r="D568">
+        <v>30</v>
+      </c>
+      <c r="E568">
+        <v>290193700</v>
+      </c>
+      <c r="F568">
+        <v>214894</v>
+      </c>
+      <c r="G568">
+        <v>30214894</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="s">
+        <v>152</v>
+      </c>
+      <c r="B569" t="s">
+        <v>11</v>
+      </c>
+      <c r="C569">
+        <v>0</v>
+      </c>
+      <c r="D569">
+        <v>30</v>
+      </c>
+      <c r="E569">
+        <v>290159500</v>
+      </c>
+      <c r="F569">
+        <v>217018</v>
+      </c>
+      <c r="G569">
+        <v>30217018</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="s">
+        <v>153</v>
+      </c>
+      <c r="B570" t="s">
+        <v>8</v>
+      </c>
+      <c r="C570">
+        <v>0</v>
+      </c>
+      <c r="D570">
+        <v>30</v>
+      </c>
+      <c r="E570">
+        <v>296276200</v>
+      </c>
+      <c r="F570">
+        <v>180898</v>
+      </c>
+      <c r="G570">
+        <v>30180898</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="s">
+        <v>153</v>
+      </c>
+      <c r="B571" t="s">
+        <v>9</v>
+      </c>
+      <c r="C571">
+        <v>0</v>
+      </c>
+      <c r="D571">
+        <v>30</v>
+      </c>
+      <c r="E571">
+        <v>296276200</v>
+      </c>
+      <c r="F571">
+        <v>176075</v>
+      </c>
+      <c r="G571">
+        <v>30176075</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="s">
+        <v>153</v>
+      </c>
+      <c r="B572" t="s">
+        <v>10</v>
+      </c>
+      <c r="C572">
+        <v>0</v>
+      </c>
+      <c r="D572">
+        <v>30</v>
+      </c>
+      <c r="E572">
+        <v>296298500</v>
+      </c>
+      <c r="F572">
+        <v>171583</v>
+      </c>
+      <c r="G572">
+        <v>30171583</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="s">
+        <v>153</v>
+      </c>
+      <c r="B573" t="s">
+        <v>11</v>
+      </c>
+      <c r="C573">
+        <v>0</v>
+      </c>
+      <c r="D573">
+        <v>30</v>
+      </c>
+      <c r="E573">
+        <v>296276200</v>
+      </c>
+      <c r="F573">
+        <v>174718</v>
+      </c>
+      <c r="G573">
+        <v>30174718</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="s">
+        <v>154</v>
+      </c>
+      <c r="B574" t="s">
+        <v>8</v>
+      </c>
+      <c r="C574">
+        <v>0</v>
+      </c>
+      <c r="D574">
+        <v>30</v>
+      </c>
+      <c r="E574">
+        <v>267217300</v>
+      </c>
+      <c r="F574">
+        <v>236501</v>
+      </c>
+      <c r="G574">
+        <v>30236501</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="s">
+        <v>154</v>
+      </c>
+      <c r="B575" t="s">
+        <v>9</v>
+      </c>
+      <c r="C575">
+        <v>0</v>
+      </c>
+      <c r="D575">
+        <v>30</v>
+      </c>
+      <c r="E575">
+        <v>267217300</v>
+      </c>
+      <c r="F575">
+        <v>240001</v>
+      </c>
+      <c r="G575">
+        <v>30240001</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="s">
+        <v>154</v>
+      </c>
+      <c r="B576" t="s">
+        <v>10</v>
+      </c>
+      <c r="C576">
+        <v>0</v>
+      </c>
+      <c r="D576">
+        <v>30</v>
+      </c>
+      <c r="E576">
+        <v>267241200</v>
+      </c>
+      <c r="F576">
+        <v>241084</v>
+      </c>
+      <c r="G576">
+        <v>30241084</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="s">
+        <v>154</v>
+      </c>
+      <c r="B577" t="s">
+        <v>11</v>
+      </c>
+      <c r="C577">
+        <v>0</v>
+      </c>
+      <c r="D577">
+        <v>30</v>
+      </c>
+      <c r="E577">
+        <v>267217300</v>
+      </c>
+      <c r="F577">
+        <v>240131</v>
+      </c>
+      <c r="G577">
+        <v>30240131</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="s">
+        <v>155</v>
+      </c>
+      <c r="B578" t="s">
+        <v>8</v>
+      </c>
+      <c r="C578">
+        <v>0</v>
+      </c>
+      <c r="D578">
+        <v>29</v>
+      </c>
+      <c r="E578">
+        <v>283402800</v>
+      </c>
+      <c r="F578">
+        <v>149604</v>
+      </c>
+      <c r="G578">
+        <v>29149604</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="s">
+        <v>155</v>
+      </c>
+      <c r="B579" t="s">
+        <v>9</v>
+      </c>
+      <c r="C579">
+        <v>0</v>
+      </c>
+      <c r="D579">
+        <v>29</v>
+      </c>
+      <c r="E579">
+        <v>283402800</v>
+      </c>
+      <c r="F579">
+        <v>147213</v>
+      </c>
+      <c r="G579">
+        <v>29147213</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="s">
+        <v>155</v>
+      </c>
+      <c r="B580" t="s">
+        <v>10</v>
+      </c>
+      <c r="C580">
+        <v>0</v>
+      </c>
+      <c r="D580">
+        <v>29</v>
+      </c>
+      <c r="E580">
+        <v>283409400</v>
+      </c>
+      <c r="F580">
+        <v>148047</v>
+      </c>
+      <c r="G580">
+        <v>29148047</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="s">
+        <v>155</v>
+      </c>
+      <c r="B581" t="s">
+        <v>11</v>
+      </c>
+      <c r="C581">
+        <v>0</v>
+      </c>
+      <c r="D581">
+        <v>29</v>
+      </c>
+      <c r="E581">
+        <v>283402800</v>
+      </c>
+      <c r="F581">
+        <v>148605</v>
+      </c>
+      <c r="G581">
+        <v>29148605</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="s">
+        <v>156</v>
+      </c>
+      <c r="B582" t="s">
+        <v>8</v>
+      </c>
+      <c r="C582">
+        <v>0</v>
+      </c>
+      <c r="D582">
+        <v>27</v>
+      </c>
+      <c r="E582">
+        <v>272646700</v>
+      </c>
+      <c r="F582">
+        <v>145967</v>
+      </c>
+      <c r="G582">
+        <v>27145967</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="s">
+        <v>156</v>
+      </c>
+      <c r="B583" t="s">
+        <v>9</v>
+      </c>
+      <c r="C583">
+        <v>0</v>
+      </c>
+      <c r="D583">
+        <v>27</v>
+      </c>
+      <c r="E583">
+        <v>272646700</v>
+      </c>
+      <c r="F583">
+        <v>147210</v>
+      </c>
+      <c r="G583">
+        <v>27147210</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="s">
+        <v>156</v>
+      </c>
+      <c r="B584" t="s">
+        <v>10</v>
+      </c>
+      <c r="C584">
+        <v>0</v>
+      </c>
+      <c r="D584">
+        <v>27</v>
+      </c>
+      <c r="E584">
+        <v>272658800</v>
+      </c>
+      <c r="F584">
+        <v>142662</v>
+      </c>
+      <c r="G584">
+        <v>27142662</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="s">
+        <v>156</v>
+      </c>
+      <c r="B585" t="s">
+        <v>11</v>
+      </c>
+      <c r="C585">
+        <v>0</v>
+      </c>
+      <c r="D585">
+        <v>27</v>
+      </c>
+      <c r="E585">
+        <v>272646700</v>
+      </c>
+      <c r="F585">
+        <v>140483</v>
+      </c>
+      <c r="G585">
+        <v>27140483</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="s">
+        <v>157</v>
+      </c>
+      <c r="B586" t="s">
+        <v>8</v>
+      </c>
+      <c r="C586">
+        <v>0</v>
+      </c>
+      <c r="D586">
+        <v>28</v>
+      </c>
+      <c r="E586">
+        <v>257957300</v>
+      </c>
+      <c r="F586">
+        <v>207321</v>
+      </c>
+      <c r="G586">
+        <v>28207321</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="s">
+        <v>157</v>
+      </c>
+      <c r="B587" t="s">
+        <v>9</v>
+      </c>
+      <c r="C587">
+        <v>0</v>
+      </c>
+      <c r="D587">
+        <v>28</v>
+      </c>
+      <c r="E587">
+        <v>257957300</v>
+      </c>
+      <c r="F587">
+        <v>199166</v>
+      </c>
+      <c r="G587">
+        <v>28199166</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="s">
+        <v>157</v>
+      </c>
+      <c r="B588" t="s">
+        <v>10</v>
+      </c>
+      <c r="C588">
+        <v>0</v>
+      </c>
+      <c r="D588">
+        <v>28</v>
+      </c>
+      <c r="E588">
+        <v>257980100</v>
+      </c>
+      <c r="F588">
+        <v>197650</v>
+      </c>
+      <c r="G588">
+        <v>28197650</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="s">
+        <v>157</v>
+      </c>
+      <c r="B589" t="s">
+        <v>11</v>
+      </c>
+      <c r="C589">
+        <v>0</v>
+      </c>
+      <c r="D589">
+        <v>28</v>
+      </c>
+      <c r="E589">
+        <v>257957300</v>
+      </c>
+      <c r="F589">
+        <v>198949</v>
+      </c>
+      <c r="G589">
+        <v>28198949</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="s">
+        <v>158</v>
+      </c>
+      <c r="B590" t="s">
+        <v>8</v>
+      </c>
+      <c r="C590">
+        <v>0</v>
+      </c>
+      <c r="D590">
+        <v>30</v>
+      </c>
+      <c r="E590">
+        <v>309866600</v>
+      </c>
+      <c r="F590">
+        <v>205059</v>
+      </c>
+      <c r="G590">
+        <v>30205059</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="s">
+        <v>158</v>
+      </c>
+      <c r="B591" t="s">
+        <v>9</v>
+      </c>
+      <c r="C591">
+        <v>0</v>
+      </c>
+      <c r="D591">
+        <v>30</v>
+      </c>
+      <c r="E591">
+        <v>309866600</v>
+      </c>
+      <c r="F591">
+        <v>199749</v>
+      </c>
+      <c r="G591">
+        <v>30199749</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="s">
+        <v>158</v>
+      </c>
+      <c r="B592" t="s">
+        <v>10</v>
+      </c>
+      <c r="C592">
+        <v>0</v>
+      </c>
+      <c r="D592">
+        <v>30</v>
+      </c>
+      <c r="E592">
+        <v>309879700</v>
+      </c>
+      <c r="F592">
+        <v>207663</v>
+      </c>
+      <c r="G592">
+        <v>30207663</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="s">
+        <v>158</v>
+      </c>
+      <c r="B593" t="s">
+        <v>11</v>
+      </c>
+      <c r="C593">
+        <v>0</v>
+      </c>
+      <c r="D593">
+        <v>30</v>
+      </c>
+      <c r="E593">
+        <v>309866600</v>
+      </c>
+      <c r="F593">
+        <v>187735</v>
+      </c>
+      <c r="G593">
+        <v>30187735</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="s">
+        <v>159</v>
+      </c>
+      <c r="B594" t="s">
+        <v>8</v>
+      </c>
+      <c r="C594">
+        <v>0</v>
+      </c>
+      <c r="D594">
+        <v>23</v>
+      </c>
+      <c r="E594">
+        <v>251463100</v>
+      </c>
+      <c r="F594">
+        <v>111420</v>
+      </c>
+      <c r="G594">
+        <v>23111420</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="s">
+        <v>159</v>
+      </c>
+      <c r="B595" t="s">
+        <v>9</v>
+      </c>
+      <c r="C595">
+        <v>0</v>
+      </c>
+      <c r="D595">
+        <v>23</v>
+      </c>
+      <c r="E595">
+        <v>251463100</v>
+      </c>
+      <c r="F595">
+        <v>107395</v>
+      </c>
+      <c r="G595">
+        <v>23107395</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="s">
+        <v>159</v>
+      </c>
+      <c r="B596" t="s">
+        <v>10</v>
+      </c>
+      <c r="C596">
+        <v>0</v>
+      </c>
+      <c r="D596">
+        <v>22</v>
+      </c>
+      <c r="E596">
+        <v>251506700</v>
+      </c>
+      <c r="F596">
+        <v>112181</v>
+      </c>
+      <c r="G596">
+        <v>22112181</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="s">
+        <v>159</v>
+      </c>
+      <c r="B597" t="s">
+        <v>11</v>
+      </c>
+      <c r="C597">
+        <v>0</v>
+      </c>
+      <c r="D597">
+        <v>23</v>
+      </c>
+      <c r="E597">
+        <v>251463100</v>
+      </c>
+      <c r="F597">
+        <v>110041</v>
+      </c>
+      <c r="G597">
+        <v>23110041</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="s">
+        <v>160</v>
+      </c>
+      <c r="B598" t="s">
+        <v>8</v>
+      </c>
+      <c r="C598">
+        <v>0</v>
+      </c>
+      <c r="D598">
+        <v>30</v>
+      </c>
+      <c r="E598">
+        <v>242780100</v>
+      </c>
+      <c r="F598">
+        <v>186335</v>
+      </c>
+      <c r="G598">
+        <v>30186335</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="s">
+        <v>160</v>
+      </c>
+      <c r="B599" t="s">
+        <v>9</v>
+      </c>
+      <c r="C599">
+        <v>0</v>
+      </c>
+      <c r="D599">
+        <v>30</v>
+      </c>
+      <c r="E599">
+        <v>242780100</v>
+      </c>
+      <c r="F599">
+        <v>203464</v>
+      </c>
+      <c r="G599">
+        <v>30203464</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="s">
+        <v>160</v>
+      </c>
+      <c r="B600" t="s">
+        <v>10</v>
+      </c>
+      <c r="C600">
+        <v>0</v>
+      </c>
+      <c r="D600">
+        <v>30</v>
+      </c>
+      <c r="E600">
+        <v>242790700</v>
+      </c>
+      <c r="F600">
+        <v>201694</v>
+      </c>
+      <c r="G600">
+        <v>30201694</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="s">
+        <v>160</v>
+      </c>
+      <c r="B601" t="s">
+        <v>11</v>
+      </c>
+      <c r="C601">
+        <v>0</v>
+      </c>
+      <c r="D601">
+        <v>30</v>
+      </c>
+      <c r="E601">
+        <v>242780100</v>
+      </c>
+      <c r="F601">
+        <v>197204</v>
+      </c>
+      <c r="G601">
+        <v>30197204</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="s">
+        <v>161</v>
+      </c>
+      <c r="B602" t="s">
+        <v>8</v>
+      </c>
+      <c r="C602">
+        <v>0</v>
+      </c>
+      <c r="D602">
+        <v>25</v>
+      </c>
+      <c r="E602">
+        <v>264186900</v>
+      </c>
+      <c r="F602">
+        <v>158720</v>
+      </c>
+      <c r="G602">
+        <v>25158720</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="s">
+        <v>161</v>
+      </c>
+      <c r="B603" t="s">
+        <v>9</v>
+      </c>
+      <c r="C603">
+        <v>0</v>
+      </c>
+      <c r="D603">
+        <v>25</v>
+      </c>
+      <c r="E603">
+        <v>264186900</v>
+      </c>
+      <c r="F603">
+        <v>152312</v>
+      </c>
+      <c r="G603">
+        <v>25152312</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="s">
+        <v>161</v>
+      </c>
+      <c r="B604" t="s">
+        <v>10</v>
+      </c>
+      <c r="C604">
+        <v>0</v>
+      </c>
+      <c r="D604">
+        <v>25</v>
+      </c>
+      <c r="E604">
+        <v>264243200</v>
+      </c>
+      <c r="F604">
+        <v>151551</v>
+      </c>
+      <c r="G604">
+        <v>25151551</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="s">
+        <v>161</v>
+      </c>
+      <c r="B605" t="s">
+        <v>11</v>
+      </c>
+      <c r="C605">
+        <v>0</v>
+      </c>
+      <c r="D605">
+        <v>25</v>
+      </c>
+      <c r="E605">
+        <v>264186900</v>
+      </c>
+      <c r="F605">
+        <v>154531</v>
+      </c>
+      <c r="G605">
+        <v>25154531</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="s">
+        <v>162</v>
+      </c>
+      <c r="B606" t="s">
+        <v>8</v>
+      </c>
+      <c r="C606">
+        <v>0</v>
+      </c>
+      <c r="D606">
+        <v>30</v>
+      </c>
+      <c r="E606">
+        <v>294669700</v>
+      </c>
+      <c r="F606">
+        <v>172309</v>
+      </c>
+      <c r="G606">
+        <v>30172309</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="s">
+        <v>162</v>
+      </c>
+      <c r="B607" t="s">
+        <v>9</v>
+      </c>
+      <c r="C607">
+        <v>0</v>
+      </c>
+      <c r="D607">
+        <v>30</v>
+      </c>
+      <c r="E607">
+        <v>294669700</v>
+      </c>
+      <c r="F607">
+        <v>172866</v>
+      </c>
+      <c r="G607">
+        <v>30172866</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="s">
+        <v>162</v>
+      </c>
+      <c r="B608" t="s">
+        <v>10</v>
+      </c>
+      <c r="C608">
+        <v>0</v>
+      </c>
+      <c r="D608">
+        <v>30</v>
+      </c>
+      <c r="E608">
+        <v>294677700</v>
+      </c>
+      <c r="F608">
+        <v>176363</v>
+      </c>
+      <c r="G608">
+        <v>30176363</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="s">
+        <v>162</v>
+      </c>
+      <c r="B609" t="s">
+        <v>11</v>
+      </c>
+      <c r="C609">
+        <v>0</v>
+      </c>
+      <c r="D609">
+        <v>30</v>
+      </c>
+      <c r="E609">
+        <v>294669700</v>
+      </c>
+      <c r="F609">
+        <v>176552</v>
+      </c>
+      <c r="G609">
+        <v>30176552</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="s">
+        <v>163</v>
+      </c>
+      <c r="B610" t="s">
+        <v>8</v>
+      </c>
+      <c r="C610">
+        <v>0</v>
+      </c>
+      <c r="D610">
+        <v>30</v>
+      </c>
+      <c r="E610">
+        <v>282670600</v>
+      </c>
+      <c r="F610">
+        <v>195667</v>
+      </c>
+      <c r="G610">
+        <v>30195667</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="s">
+        <v>163</v>
+      </c>
+      <c r="B611" t="s">
+        <v>9</v>
+      </c>
+      <c r="C611">
+        <v>0</v>
+      </c>
+      <c r="D611">
+        <v>29</v>
+      </c>
+      <c r="E611">
+        <v>282670600</v>
+      </c>
+      <c r="F611">
+        <v>196155</v>
+      </c>
+      <c r="G611">
+        <v>29196155</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="s">
+        <v>163</v>
+      </c>
+      <c r="B612" t="s">
+        <v>10</v>
+      </c>
+      <c r="C612">
+        <v>0</v>
+      </c>
+      <c r="D612">
+        <v>29</v>
+      </c>
+      <c r="E612">
+        <v>282706700</v>
+      </c>
+      <c r="F612">
+        <v>208448</v>
+      </c>
+      <c r="G612">
+        <v>29208448</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="s">
+        <v>163</v>
+      </c>
+      <c r="B613" t="s">
+        <v>11</v>
+      </c>
+      <c r="C613">
+        <v>0</v>
+      </c>
+      <c r="D613">
+        <v>29</v>
+      </c>
+      <c r="E613">
+        <v>282670600</v>
+      </c>
+      <c r="F613">
+        <v>208831</v>
+      </c>
+      <c r="G613">
+        <v>29208831</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="s">
+        <v>164</v>
+      </c>
+      <c r="B614" t="s">
+        <v>8</v>
+      </c>
+      <c r="C614">
+        <v>0</v>
+      </c>
+      <c r="D614">
+        <v>30</v>
+      </c>
+      <c r="E614">
+        <v>305412800</v>
+      </c>
+      <c r="F614">
+        <v>235527</v>
+      </c>
+      <c r="G614">
+        <v>30235527</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="s">
+        <v>164</v>
+      </c>
+      <c r="B615" t="s">
+        <v>9</v>
+      </c>
+      <c r="C615">
+        <v>0</v>
+      </c>
+      <c r="D615">
+        <v>30</v>
+      </c>
+      <c r="E615">
+        <v>305412800</v>
+      </c>
+      <c r="F615">
+        <v>229944</v>
+      </c>
+      <c r="G615">
+        <v>30229944</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="s">
+        <v>164</v>
+      </c>
+      <c r="B616" t="s">
+        <v>10</v>
+      </c>
+      <c r="C616">
+        <v>0</v>
+      </c>
+      <c r="D616">
+        <v>30</v>
+      </c>
+      <c r="E616">
+        <v>305435500</v>
+      </c>
+      <c r="F616">
+        <v>227683</v>
+      </c>
+      <c r="G616">
+        <v>30227683</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="s">
+        <v>164</v>
+      </c>
+      <c r="B617" t="s">
+        <v>11</v>
+      </c>
+      <c r="C617">
+        <v>0</v>
+      </c>
+      <c r="D617">
+        <v>30</v>
+      </c>
+      <c r="E617">
+        <v>305412800</v>
+      </c>
+      <c r="F617">
+        <v>234117</v>
+      </c>
+      <c r="G617">
+        <v>30234117</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="s">
+        <v>165</v>
+      </c>
+      <c r="B618" t="s">
+        <v>8</v>
+      </c>
+      <c r="C618">
+        <v>0</v>
+      </c>
+      <c r="D618">
+        <v>0</v>
+      </c>
+      <c r="E618">
+        <v>270064100</v>
+      </c>
+      <c r="F618">
+        <v>1492</v>
+      </c>
+      <c r="G618">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="s">
+        <v>165</v>
+      </c>
+      <c r="B619" t="s">
+        <v>9</v>
+      </c>
+      <c r="C619">
+        <v>0</v>
+      </c>
+      <c r="D619">
+        <v>0</v>
+      </c>
+      <c r="E619">
+        <v>270064100</v>
+      </c>
+      <c r="F619">
+        <v>1435</v>
+      </c>
+      <c r="G619">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="s">
+        <v>165</v>
+      </c>
+      <c r="B620" t="s">
+        <v>10</v>
+      </c>
+      <c r="C620">
+        <v>0</v>
+      </c>
+      <c r="D620">
+        <v>0</v>
+      </c>
+      <c r="E620">
+        <v>270075800</v>
+      </c>
+      <c r="F620">
+        <v>1411</v>
+      </c>
+      <c r="G620">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="s">
+        <v>165</v>
+      </c>
+      <c r="B621" t="s">
+        <v>11</v>
+      </c>
+      <c r="C621">
+        <v>0</v>
+      </c>
+      <c r="D621">
+        <v>0</v>
+      </c>
+      <c r="E621">
+        <v>270064100</v>
+      </c>
+      <c r="F621">
+        <v>1423</v>
+      </c>
+      <c r="G621">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="s">
+        <v>166</v>
+      </c>
+      <c r="B622" t="s">
+        <v>8</v>
+      </c>
+      <c r="C622">
+        <v>0</v>
+      </c>
+      <c r="D622">
+        <v>0</v>
+      </c>
+      <c r="E622">
+        <v>253965500</v>
+      </c>
+      <c r="F622">
+        <v>1701</v>
+      </c>
+      <c r="G622">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="s">
+        <v>166</v>
+      </c>
+      <c r="B623" t="s">
+        <v>9</v>
+      </c>
+      <c r="C623">
+        <v>0</v>
+      </c>
+      <c r="D623">
+        <v>0</v>
+      </c>
+      <c r="E623">
+        <v>253965500</v>
+      </c>
+      <c r="F623">
+        <v>1719</v>
+      </c>
+      <c r="G623">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="s">
+        <v>166</v>
+      </c>
+      <c r="B624" t="s">
+        <v>10</v>
+      </c>
+      <c r="C624">
+        <v>0</v>
+      </c>
+      <c r="D624">
+        <v>0</v>
+      </c>
+      <c r="E624">
+        <v>253994800</v>
+      </c>
+      <c r="F624">
+        <v>1769</v>
+      </c>
+      <c r="G624">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="s">
+        <v>166</v>
+      </c>
+      <c r="B625" t="s">
+        <v>11</v>
+      </c>
+      <c r="C625">
+        <v>0</v>
+      </c>
+      <c r="D625">
+        <v>0</v>
+      </c>
+      <c r="E625">
+        <v>253965500</v>
+      </c>
+      <c r="F625">
+        <v>1739</v>
+      </c>
+      <c r="G625">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="s">
+        <v>167</v>
+      </c>
+      <c r="B626" t="s">
+        <v>8</v>
+      </c>
+      <c r="C626">
+        <v>0</v>
+      </c>
+      <c r="D626">
+        <v>0</v>
+      </c>
+      <c r="E626">
+        <v>270929800</v>
+      </c>
+      <c r="F626">
+        <v>1739</v>
+      </c>
+      <c r="G626">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="s">
+        <v>167</v>
+      </c>
+      <c r="B627" t="s">
+        <v>9</v>
+      </c>
+      <c r="C627">
+        <v>0</v>
+      </c>
+      <c r="D627">
+        <v>0</v>
+      </c>
+      <c r="E627">
+        <v>270929800</v>
+      </c>
+      <c r="F627">
+        <v>1772</v>
+      </c>
+      <c r="G627">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="s">
+        <v>167</v>
+      </c>
+      <c r="B628" t="s">
+        <v>10</v>
+      </c>
+      <c r="C628">
+        <v>0</v>
+      </c>
+      <c r="D628">
+        <v>0</v>
+      </c>
+      <c r="E628">
+        <v>270953100</v>
+      </c>
+      <c r="F628">
+        <v>1786</v>
+      </c>
+      <c r="G628">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="s">
+        <v>167</v>
+      </c>
+      <c r="B629" t="s">
+        <v>11</v>
+      </c>
+      <c r="C629">
+        <v>0</v>
+      </c>
+      <c r="D629">
+        <v>0</v>
+      </c>
+      <c r="E629">
+        <v>270929800</v>
+      </c>
+      <c r="F629">
+        <v>1851</v>
+      </c>
+      <c r="G629">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="s">
+        <v>168</v>
+      </c>
+      <c r="B630" t="s">
+        <v>8</v>
+      </c>
+      <c r="C630">
+        <v>0</v>
+      </c>
+      <c r="D630">
+        <v>0</v>
+      </c>
+      <c r="E630">
+        <v>254435700</v>
+      </c>
+      <c r="F630">
+        <v>1338</v>
+      </c>
+      <c r="G630">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="s">
+        <v>168</v>
+      </c>
+      <c r="B631" t="s">
+        <v>9</v>
+      </c>
+      <c r="C631">
+        <v>0</v>
+      </c>
+      <c r="D631">
+        <v>0</v>
+      </c>
+      <c r="E631">
+        <v>254435700</v>
+      </c>
+      <c r="F631">
+        <v>1380</v>
+      </c>
+      <c r="G631">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="s">
+        <v>168</v>
+      </c>
+      <c r="B632" t="s">
+        <v>10</v>
+      </c>
+      <c r="C632">
+        <v>0</v>
+      </c>
+      <c r="D632">
+        <v>0</v>
+      </c>
+      <c r="E632">
+        <v>254478600</v>
+      </c>
+      <c r="F632">
+        <v>1362</v>
+      </c>
+      <c r="G632">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="s">
+        <v>168</v>
+      </c>
+      <c r="B633" t="s">
+        <v>11</v>
+      </c>
+      <c r="C633">
+        <v>0</v>
+      </c>
+      <c r="D633">
+        <v>0</v>
+      </c>
+      <c r="E633">
+        <v>254435700</v>
+      </c>
+      <c r="F633">
+        <v>1361</v>
+      </c>
+      <c r="G633">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="s">
+        <v>169</v>
+      </c>
+      <c r="B634" t="s">
+        <v>8</v>
+      </c>
+      <c r="C634">
+        <v>0</v>
+      </c>
+      <c r="D634">
+        <v>0</v>
+      </c>
+      <c r="E634">
+        <v>266238900</v>
+      </c>
+      <c r="F634">
+        <v>1487</v>
+      </c>
+      <c r="G634">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="s">
+        <v>169</v>
+      </c>
+      <c r="B635" t="s">
+        <v>9</v>
+      </c>
+      <c r="C635">
+        <v>0</v>
+      </c>
+      <c r="D635">
+        <v>0</v>
+      </c>
+      <c r="E635">
+        <v>266238900</v>
+      </c>
+      <c r="F635">
+        <v>1422</v>
+      </c>
+      <c r="G635">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="s">
+        <v>169</v>
+      </c>
+      <c r="B636" t="s">
+        <v>10</v>
+      </c>
+      <c r="C636">
+        <v>0</v>
+      </c>
+      <c r="D636">
+        <v>0</v>
+      </c>
+      <c r="E636">
+        <v>266277900</v>
+      </c>
+      <c r="F636">
+        <v>1542</v>
+      </c>
+      <c r="G636">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="s">
+        <v>169</v>
+      </c>
+      <c r="B637" t="s">
+        <v>11</v>
+      </c>
+      <c r="C637">
+        <v>0</v>
+      </c>
+      <c r="D637">
+        <v>0</v>
+      </c>
+      <c r="E637">
+        <v>266238900</v>
+      </c>
+      <c r="F637">
+        <v>1475</v>
+      </c>
+      <c r="G637">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="s">
+        <v>170</v>
+      </c>
+      <c r="B638" t="s">
+        <v>8</v>
+      </c>
+      <c r="C638">
+        <v>0</v>
+      </c>
+      <c r="D638">
+        <v>0</v>
+      </c>
+      <c r="E638">
+        <v>291505800</v>
+      </c>
+      <c r="F638">
+        <v>1482</v>
+      </c>
+      <c r="G638">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="s">
+        <v>170</v>
+      </c>
+      <c r="B639" t="s">
+        <v>9</v>
+      </c>
+      <c r="C639">
+        <v>0</v>
+      </c>
+      <c r="D639">
+        <v>0</v>
+      </c>
+      <c r="E639">
+        <v>291505800</v>
+      </c>
+      <c r="F639">
+        <v>1458</v>
+      </c>
+      <c r="G639">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="s">
+        <v>170</v>
+      </c>
+      <c r="B640" t="s">
+        <v>10</v>
+      </c>
+      <c r="C640">
+        <v>0</v>
+      </c>
+      <c r="D640">
+        <v>0</v>
+      </c>
+      <c r="E640">
+        <v>291521900</v>
+      </c>
+      <c r="F640">
+        <v>1415</v>
+      </c>
+      <c r="G640">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="s">
+        <v>170</v>
+      </c>
+      <c r="B641" t="s">
+        <v>11</v>
+      </c>
+      <c r="C641">
+        <v>0</v>
+      </c>
+      <c r="D641">
+        <v>0</v>
+      </c>
+      <c r="E641">
+        <v>291505800</v>
+      </c>
+      <c r="F641">
+        <v>1452</v>
+      </c>
+      <c r="G641">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="s">
+        <v>171</v>
+      </c>
+      <c r="B642" t="s">
+        <v>8</v>
+      </c>
+      <c r="C642">
+        <v>0</v>
+      </c>
+      <c r="D642">
+        <v>0</v>
+      </c>
+      <c r="E642">
+        <v>238816700</v>
+      </c>
+      <c r="F642">
+        <v>653</v>
+      </c>
+      <c r="G642">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="s">
+        <v>171</v>
+      </c>
+      <c r="B643" t="s">
+        <v>9</v>
+      </c>
+      <c r="C643">
+        <v>0</v>
+      </c>
+      <c r="D643">
+        <v>0</v>
+      </c>
+      <c r="E643">
+        <v>238816700</v>
+      </c>
+      <c r="F643">
+        <v>642</v>
+      </c>
+      <c r="G643">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="s">
+        <v>171</v>
+      </c>
+      <c r="B644" t="s">
+        <v>10</v>
+      </c>
+      <c r="C644">
+        <v>0</v>
+      </c>
+      <c r="D644">
+        <v>0</v>
+      </c>
+      <c r="E644">
+        <v>238833900</v>
+      </c>
+      <c r="F644">
+        <v>644</v>
+      </c>
+      <c r="G644">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="s">
+        <v>171</v>
+      </c>
+      <c r="B645" t="s">
+        <v>11</v>
+      </c>
+      <c r="C645">
+        <v>0</v>
+      </c>
+      <c r="D645">
+        <v>0</v>
+      </c>
+      <c r="E645">
+        <v>238816700</v>
+      </c>
+      <c r="F645">
+        <v>637</v>
+      </c>
+      <c r="G645">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="s">
+        <v>172</v>
+      </c>
+      <c r="B646" t="s">
+        <v>8</v>
+      </c>
+      <c r="C646">
+        <v>0</v>
+      </c>
+      <c r="D646">
+        <v>0</v>
+      </c>
+      <c r="E646">
+        <v>230260900</v>
+      </c>
+      <c r="F646">
+        <v>605</v>
+      </c>
+      <c r="G646">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="s">
+        <v>172</v>
+      </c>
+      <c r="B647" t="s">
+        <v>9</v>
+      </c>
+      <c r="C647">
+        <v>0</v>
+      </c>
+      <c r="D647">
+        <v>0</v>
+      </c>
+      <c r="E647">
+        <v>230260900</v>
+      </c>
+      <c r="F647">
+        <v>589</v>
+      </c>
+      <c r="G647">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="s">
+        <v>172</v>
+      </c>
+      <c r="B648" t="s">
+        <v>10</v>
+      </c>
+      <c r="C648">
+        <v>0</v>
+      </c>
+      <c r="D648">
+        <v>0</v>
+      </c>
+      <c r="E648">
+        <v>230271900</v>
+      </c>
+      <c r="F648">
+        <v>610</v>
+      </c>
+      <c r="G648">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="s">
+        <v>172</v>
+      </c>
+      <c r="B649" t="s">
+        <v>11</v>
+      </c>
+      <c r="C649">
+        <v>0</v>
+      </c>
+      <c r="D649">
+        <v>0</v>
+      </c>
+      <c r="E649">
+        <v>230260900</v>
+      </c>
+      <c r="F649">
+        <v>574</v>
+      </c>
+      <c r="G649">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="s">
+        <v>173</v>
+      </c>
+      <c r="B650" t="s">
+        <v>8</v>
+      </c>
+      <c r="C650">
+        <v>0</v>
+      </c>
+      <c r="D650">
+        <v>0</v>
+      </c>
+      <c r="E650">
+        <v>277627400</v>
+      </c>
+      <c r="F650">
+        <v>887</v>
+      </c>
+      <c r="G650">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="s">
+        <v>173</v>
+      </c>
+      <c r="B651" t="s">
+        <v>9</v>
+      </c>
+      <c r="C651">
+        <v>0</v>
+      </c>
+      <c r="D651">
+        <v>0</v>
+      </c>
+      <c r="E651">
+        <v>277627400</v>
+      </c>
+      <c r="F651">
+        <v>915</v>
+      </c>
+      <c r="G651">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="s">
+        <v>173</v>
+      </c>
+      <c r="B652" t="s">
+        <v>10</v>
+      </c>
+      <c r="C652">
+        <v>0</v>
+      </c>
+      <c r="D652">
+        <v>0</v>
+      </c>
+      <c r="E652">
+        <v>277671400</v>
+      </c>
+      <c r="F652">
+        <v>891</v>
+      </c>
+      <c r="G652">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="s">
+        <v>173</v>
+      </c>
+      <c r="B653" t="s">
+        <v>11</v>
+      </c>
+      <c r="C653">
+        <v>0</v>
+      </c>
+      <c r="D653">
+        <v>0</v>
+      </c>
+      <c r="E653">
+        <v>277627400</v>
+      </c>
+      <c r="F653">
+        <v>928</v>
+      </c>
+      <c r="G653">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="s">
+        <v>174</v>
+      </c>
+      <c r="B654" t="s">
+        <v>8</v>
+      </c>
+      <c r="C654">
+        <v>0</v>
+      </c>
+      <c r="D654">
+        <v>0</v>
+      </c>
+      <c r="E654">
+        <v>277873300</v>
+      </c>
+      <c r="F654">
+        <v>814</v>
+      </c>
+      <c r="G654">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="s">
+        <v>174</v>
+      </c>
+      <c r="B655" t="s">
+        <v>9</v>
+      </c>
+      <c r="C655">
+        <v>0</v>
+      </c>
+      <c r="D655">
+        <v>0</v>
+      </c>
+      <c r="E655">
+        <v>277873300</v>
+      </c>
+      <c r="F655">
+        <v>769</v>
+      </c>
+      <c r="G655">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="s">
+        <v>174</v>
+      </c>
+      <c r="B656" t="s">
+        <v>10</v>
+      </c>
+      <c r="C656">
+        <v>0</v>
+      </c>
+      <c r="D656">
+        <v>0</v>
+      </c>
+      <c r="E656">
+        <v>277886800</v>
+      </c>
+      <c r="F656">
+        <v>765</v>
+      </c>
+      <c r="G656">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="s">
+        <v>174</v>
+      </c>
+      <c r="B657" t="s">
+        <v>11</v>
+      </c>
+      <c r="C657">
+        <v>0</v>
+      </c>
+      <c r="D657">
+        <v>0</v>
+      </c>
+      <c r="E657">
+        <v>277873300</v>
+      </c>
+      <c r="F657">
+        <v>805</v>
+      </c>
+      <c r="G657">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="s">
+        <v>175</v>
+      </c>
+      <c r="B658" t="s">
+        <v>8</v>
+      </c>
+      <c r="C658">
+        <v>0</v>
+      </c>
+      <c r="D658">
+        <v>0</v>
+      </c>
+      <c r="E658">
+        <v>263953200</v>
+      </c>
+      <c r="F658">
+        <v>886</v>
+      </c>
+      <c r="G658">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="s">
+        <v>175</v>
+      </c>
+      <c r="B659" t="s">
+        <v>9</v>
+      </c>
+      <c r="C659">
+        <v>0</v>
+      </c>
+      <c r="D659">
+        <v>0</v>
+      </c>
+      <c r="E659">
+        <v>263953200</v>
+      </c>
+      <c r="F659">
+        <v>843</v>
+      </c>
+      <c r="G659">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="s">
+        <v>175</v>
+      </c>
+      <c r="B660" t="s">
+        <v>10</v>
+      </c>
+      <c r="C660">
+        <v>0</v>
+      </c>
+      <c r="D660">
+        <v>0</v>
+      </c>
+      <c r="E660">
+        <v>263966700</v>
+      </c>
+      <c r="F660">
+        <v>868</v>
+      </c>
+      <c r="G660">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="s">
+        <v>175</v>
+      </c>
+      <c r="B661" t="s">
+        <v>11</v>
+      </c>
+      <c r="C661">
+        <v>0</v>
+      </c>
+      <c r="D661">
+        <v>0</v>
+      </c>
+      <c r="E661">
+        <v>263953200</v>
+      </c>
+      <c r="F661">
+        <v>893</v>
+      </c>
+      <c r="G661">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="s">
+        <v>176</v>
+      </c>
+      <c r="B662" t="s">
+        <v>8</v>
+      </c>
+      <c r="C662">
+        <v>0</v>
+      </c>
+      <c r="D662">
+        <v>0</v>
+      </c>
+      <c r="E662">
+        <v>294853300</v>
+      </c>
+      <c r="F662">
+        <v>1354</v>
+      </c>
+      <c r="G662">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="s">
+        <v>176</v>
+      </c>
+      <c r="B663" t="s">
+        <v>9</v>
+      </c>
+      <c r="C663">
+        <v>0</v>
+      </c>
+      <c r="D663">
+        <v>0</v>
+      </c>
+      <c r="E663">
+        <v>294853300</v>
+      </c>
+      <c r="F663">
+        <v>1409</v>
+      </c>
+      <c r="G663">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="s">
+        <v>176</v>
+      </c>
+      <c r="B664" t="s">
+        <v>10</v>
+      </c>
+      <c r="C664">
+        <v>0</v>
+      </c>
+      <c r="D664">
+        <v>0</v>
+      </c>
+      <c r="E664">
+        <v>294879000</v>
+      </c>
+      <c r="F664">
+        <v>1389</v>
+      </c>
+      <c r="G664">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="s">
+        <v>176</v>
+      </c>
+      <c r="B665" t="s">
+        <v>11</v>
+      </c>
+      <c r="C665">
+        <v>0</v>
+      </c>
+      <c r="D665">
+        <v>0</v>
+      </c>
+      <c r="E665">
+        <v>294853300</v>
+      </c>
+      <c r="F665">
+        <v>1405</v>
+      </c>
+      <c r="G665">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="s">
+        <v>177</v>
+      </c>
+      <c r="B666" t="s">
+        <v>8</v>
+      </c>
+      <c r="C666">
+        <v>0</v>
+      </c>
+      <c r="D666">
+        <v>2</v>
+      </c>
+      <c r="E666">
+        <v>664234100</v>
+      </c>
+      <c r="F666">
+        <v>3821</v>
+      </c>
+      <c r="G666">
+        <v>2003821</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="s">
+        <v>177</v>
+      </c>
+      <c r="B667" t="s">
+        <v>9</v>
+      </c>
+      <c r="C667">
+        <v>0</v>
+      </c>
+      <c r="D667">
+        <v>2</v>
+      </c>
+      <c r="E667">
+        <v>664234100</v>
+      </c>
+      <c r="F667">
+        <v>3867</v>
+      </c>
+      <c r="G667">
+        <v>2003867</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="s">
+        <v>177</v>
+      </c>
+      <c r="B668" t="s">
+        <v>10</v>
+      </c>
+      <c r="C668">
+        <v>0</v>
+      </c>
+      <c r="D668">
+        <v>2</v>
+      </c>
+      <c r="E668">
+        <v>664241900</v>
+      </c>
+      <c r="F668">
+        <v>3901</v>
+      </c>
+      <c r="G668">
+        <v>2003901</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="s">
+        <v>177</v>
+      </c>
+      <c r="B669" t="s">
+        <v>11</v>
+      </c>
+      <c r="C669">
+        <v>0</v>
+      </c>
+      <c r="D669">
+        <v>2</v>
+      </c>
+      <c r="E669">
+        <v>664234100</v>
+      </c>
+      <c r="F669">
+        <v>3916</v>
+      </c>
+      <c r="G669">
+        <v>2003916</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="s">
+        <v>178</v>
+      </c>
+      <c r="B670" t="s">
+        <v>8</v>
+      </c>
+      <c r="C670">
+        <v>0</v>
+      </c>
+      <c r="D670">
+        <v>57</v>
+      </c>
+      <c r="E670">
+        <v>977395400</v>
+      </c>
+      <c r="F670">
+        <v>10050</v>
+      </c>
+      <c r="G670">
+        <v>57010050</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="s">
+        <v>178</v>
+      </c>
+      <c r="B671" t="s">
+        <v>9</v>
+      </c>
+      <c r="C671">
+        <v>0</v>
+      </c>
+      <c r="D671">
+        <v>57</v>
+      </c>
+      <c r="E671">
+        <v>977395400</v>
+      </c>
+      <c r="F671">
+        <v>9911</v>
+      </c>
+      <c r="G671">
+        <v>57009911</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="s">
+        <v>178</v>
+      </c>
+      <c r="B672" t="s">
+        <v>10</v>
+      </c>
+      <c r="C672">
+        <v>0</v>
+      </c>
+      <c r="D672">
+        <v>57</v>
+      </c>
+      <c r="E672">
+        <v>977428300</v>
+      </c>
+      <c r="F672">
+        <v>9867</v>
+      </c>
+      <c r="G672">
+        <v>57009867</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="s">
+        <v>178</v>
+      </c>
+      <c r="B673" t="s">
+        <v>11</v>
+      </c>
+      <c r="C673">
+        <v>0</v>
+      </c>
+      <c r="D673">
+        <v>57</v>
+      </c>
+      <c r="E673">
+        <v>977395400</v>
+      </c>
+      <c r="F673">
+        <v>9696</v>
+      </c>
+      <c r="G673">
+        <v>57009696</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="s">
+        <v>179</v>
+      </c>
+      <c r="B674" t="s">
+        <v>8</v>
+      </c>
+      <c r="C674">
+        <v>0</v>
+      </c>
+      <c r="D674">
+        <v>158</v>
+      </c>
+      <c r="E674">
+        <v>1398250000</v>
+      </c>
+      <c r="F674">
+        <v>13513</v>
+      </c>
+      <c r="G674">
+        <v>158013513</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="s">
+        <v>179</v>
+      </c>
+      <c r="B675" t="s">
+        <v>9</v>
+      </c>
+      <c r="C675">
+        <v>0</v>
+      </c>
+      <c r="D675">
+        <v>158</v>
+      </c>
+      <c r="E675">
+        <v>1398250000</v>
+      </c>
+      <c r="F675">
+        <v>13503</v>
+      </c>
+      <c r="G675">
+        <v>158013503</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="s">
+        <v>179</v>
+      </c>
+      <c r="B676" t="s">
+        <v>10</v>
+      </c>
+      <c r="C676">
+        <v>0</v>
+      </c>
+      <c r="D676">
+        <v>158</v>
+      </c>
+      <c r="E676">
+        <v>1398262000</v>
+      </c>
+      <c r="F676">
+        <v>13777</v>
+      </c>
+      <c r="G676">
+        <v>158013777</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="s">
+        <v>179</v>
+      </c>
+      <c r="B677" t="s">
+        <v>11</v>
+      </c>
+      <c r="C677">
+        <v>0</v>
+      </c>
+      <c r="D677">
+        <v>158</v>
+      </c>
+      <c r="E677">
+        <v>1398250000</v>
+      </c>
+      <c r="F677">
+        <v>13856</v>
+      </c>
+      <c r="G677">
+        <v>158013856</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="s">
+        <v>180</v>
+      </c>
+      <c r="B678" t="s">
+        <v>8</v>
+      </c>
+      <c r="C678">
+        <v>0</v>
+      </c>
+      <c r="D678">
+        <v>160</v>
+      </c>
+      <c r="E678">
+        <v>1390526400</v>
+      </c>
+      <c r="F678">
+        <v>23923</v>
+      </c>
+      <c r="G678">
+        <v>160023923</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="s">
+        <v>180</v>
+      </c>
+      <c r="B679" t="s">
+        <v>9</v>
+      </c>
+      <c r="C679">
+        <v>0</v>
+      </c>
+      <c r="D679">
+        <v>160</v>
+      </c>
+      <c r="E679">
+        <v>1390526400</v>
+      </c>
+      <c r="F679">
+        <v>23803</v>
+      </c>
+      <c r="G679">
+        <v>160023803</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="s">
+        <v>180</v>
+      </c>
+      <c r="B680" t="s">
+        <v>10</v>
+      </c>
+      <c r="C680">
+        <v>0</v>
+      </c>
+      <c r="D680">
+        <v>160</v>
+      </c>
+      <c r="E680">
+        <v>1390543500</v>
+      </c>
+      <c r="F680">
+        <v>23956</v>
+      </c>
+      <c r="G680">
+        <v>160023956</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="s">
+        <v>180</v>
+      </c>
+      <c r="B681" t="s">
+        <v>11</v>
+      </c>
+      <c r="C681">
+        <v>0</v>
+      </c>
+      <c r="D681">
+        <v>160</v>
+      </c>
+      <c r="E681">
+        <v>1390526400</v>
+      </c>
+      <c r="F681">
+        <v>24059</v>
+      </c>
+      <c r="G681">
+        <v>160024059</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="s">
+        <v>181</v>
+      </c>
+      <c r="B682" t="s">
+        <v>8</v>
+      </c>
+      <c r="C682">
+        <v>0</v>
+      </c>
+      <c r="D682">
+        <v>154</v>
+      </c>
+      <c r="E682">
+        <v>1389416600</v>
+      </c>
+      <c r="F682">
+        <v>23470</v>
+      </c>
+      <c r="G682">
+        <v>154023470</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="s">
+        <v>181</v>
+      </c>
+      <c r="B683" t="s">
+        <v>9</v>
+      </c>
+      <c r="C683">
+        <v>0</v>
+      </c>
+      <c r="D683">
+        <v>154</v>
+      </c>
+      <c r="E683">
+        <v>1389416600</v>
+      </c>
+      <c r="F683">
+        <v>23301</v>
+      </c>
+      <c r="G683">
+        <v>154023301</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="s">
+        <v>181</v>
+      </c>
+      <c r="B684" t="s">
+        <v>10</v>
+      </c>
+      <c r="C684">
+        <v>0</v>
+      </c>
+      <c r="D684">
+        <v>154</v>
+      </c>
+      <c r="E684">
+        <v>1389422700</v>
+      </c>
+      <c r="F684">
+        <v>23301</v>
+      </c>
+      <c r="G684">
+        <v>154023301</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="s">
+        <v>181</v>
+      </c>
+      <c r="B685" t="s">
+        <v>11</v>
+      </c>
+      <c r="C685">
+        <v>0</v>
+      </c>
+      <c r="D685">
+        <v>154</v>
+      </c>
+      <c r="E685">
+        <v>1389416600</v>
+      </c>
+      <c r="F685">
+        <v>23301</v>
+      </c>
+      <c r="G685">
+        <v>154023301</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="s">
+        <v>182</v>
+      </c>
+      <c r="B686" t="s">
+        <v>8</v>
+      </c>
+      <c r="C686">
+        <v>0</v>
+      </c>
+      <c r="D686">
+        <v>2</v>
+      </c>
+      <c r="E686">
+        <v>710321500</v>
+      </c>
+      <c r="F686">
+        <v>5662</v>
+      </c>
+      <c r="G686">
+        <v>2005662</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="s">
+        <v>182</v>
+      </c>
+      <c r="B687" t="s">
+        <v>9</v>
+      </c>
+      <c r="C687">
+        <v>0</v>
+      </c>
+      <c r="D687">
+        <v>2</v>
+      </c>
+      <c r="E687">
+        <v>710321500</v>
+      </c>
+      <c r="F687">
+        <v>5600</v>
+      </c>
+      <c r="G687">
+        <v>2005600</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="s">
+        <v>182</v>
+      </c>
+      <c r="B688" t="s">
+        <v>10</v>
+      </c>
+      <c r="C688">
+        <v>0</v>
+      </c>
+      <c r="D688">
+        <v>2</v>
+      </c>
+      <c r="E688">
+        <v>710334000</v>
+      </c>
+      <c r="F688">
+        <v>5600</v>
+      </c>
+      <c r="G688">
+        <v>2005600</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="s">
+        <v>182</v>
+      </c>
+      <c r="B689" t="s">
+        <v>11</v>
+      </c>
+      <c r="C689">
+        <v>0</v>
+      </c>
+      <c r="D689">
+        <v>2</v>
+      </c>
+      <c r="E689">
+        <v>710321500</v>
+      </c>
+      <c r="F689">
+        <v>5600</v>
+      </c>
+      <c r="G689">
+        <v>2005600</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="s">
+        <v>183</v>
+      </c>
+      <c r="B690" t="s">
+        <v>8</v>
+      </c>
+      <c r="C690">
+        <v>0</v>
+      </c>
+      <c r="D690">
+        <v>0</v>
+      </c>
+      <c r="E690">
+        <v>284147200</v>
+      </c>
+      <c r="F690">
+        <v>3812</v>
+      </c>
+      <c r="G690">
+        <v>3812</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="s">
+        <v>183</v>
+      </c>
+      <c r="B691" t="s">
+        <v>9</v>
+      </c>
+      <c r="C691">
+        <v>0</v>
+      </c>
+      <c r="D691">
+        <v>0</v>
+      </c>
+      <c r="E691">
+        <v>284147200</v>
+      </c>
+      <c r="F691">
+        <v>3792</v>
+      </c>
+      <c r="G691">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="s">
+        <v>183</v>
+      </c>
+      <c r="B692" t="s">
+        <v>10</v>
+      </c>
+      <c r="C692">
+        <v>0</v>
+      </c>
+      <c r="D692">
+        <v>0</v>
+      </c>
+      <c r="E692">
+        <v>284162200</v>
+      </c>
+      <c r="F692">
+        <v>3792</v>
+      </c>
+      <c r="G692">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="s">
+        <v>183</v>
+      </c>
+      <c r="B693" t="s">
+        <v>11</v>
+      </c>
+      <c r="C693">
+        <v>0</v>
+      </c>
+      <c r="D693">
+        <v>0</v>
+      </c>
+      <c r="E693">
+        <v>284147200</v>
+      </c>
+      <c r="F693">
+        <v>3792</v>
+      </c>
+      <c r="G693">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="s">
+        <v>184</v>
+      </c>
+      <c r="B694" t="s">
+        <v>8</v>
+      </c>
+      <c r="C694">
+        <v>0</v>
+      </c>
+      <c r="D694">
+        <v>56</v>
+      </c>
+      <c r="E694">
+        <v>986265800</v>
+      </c>
+      <c r="F694">
+        <v>17835</v>
+      </c>
+      <c r="G694">
+        <v>56017835</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="s">
+        <v>184</v>
+      </c>
+      <c r="B695" t="s">
+        <v>9</v>
+      </c>
+      <c r="C695">
+        <v>0</v>
+      </c>
+      <c r="D695">
+        <v>56</v>
+      </c>
+      <c r="E695">
+        <v>986265800</v>
+      </c>
+      <c r="F695">
+        <v>17724</v>
+      </c>
+      <c r="G695">
+        <v>56017724</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="s">
+        <v>184</v>
+      </c>
+      <c r="B696" t="s">
+        <v>10</v>
+      </c>
+      <c r="C696">
+        <v>0</v>
+      </c>
+      <c r="D696">
+        <v>56</v>
+      </c>
+      <c r="E696">
+        <v>986274800</v>
+      </c>
+      <c r="F696">
+        <v>17724</v>
+      </c>
+      <c r="G696">
+        <v>56017724</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="s">
+        <v>184</v>
+      </c>
+      <c r="B697" t="s">
+        <v>11</v>
+      </c>
+      <c r="C697">
+        <v>0</v>
+      </c>
+      <c r="D697">
+        <v>56</v>
+      </c>
+      <c r="E697">
+        <v>986265800</v>
+      </c>
+      <c r="F697">
+        <v>17724</v>
+      </c>
+      <c r="G697">
+        <v>56017724</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="s">
+        <v>185</v>
+      </c>
+      <c r="B698" t="s">
+        <v>8</v>
+      </c>
+      <c r="C698">
+        <v>0</v>
+      </c>
+      <c r="D698">
+        <v>62</v>
+      </c>
+      <c r="E698">
+        <v>1008896400</v>
+      </c>
+      <c r="F698">
+        <v>21278</v>
+      </c>
+      <c r="G698">
+        <v>62021278</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="s">
+        <v>185</v>
+      </c>
+      <c r="B699" t="s">
+        <v>9</v>
+      </c>
+      <c r="C699">
+        <v>0</v>
+      </c>
+      <c r="D699">
+        <v>62</v>
+      </c>
+      <c r="E699">
+        <v>1008896400</v>
+      </c>
+      <c r="F699">
+        <v>21136</v>
+      </c>
+      <c r="G699">
+        <v>62021136</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="s">
+        <v>185</v>
+      </c>
+      <c r="B700" t="s">
+        <v>10</v>
+      </c>
+      <c r="C700">
+        <v>0</v>
+      </c>
+      <c r="D700">
+        <v>62</v>
+      </c>
+      <c r="E700">
+        <v>1008902900</v>
+      </c>
+      <c r="F700">
+        <v>21136</v>
+      </c>
+      <c r="G700">
+        <v>62021136</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="s">
+        <v>185</v>
+      </c>
+      <c r="B701" t="s">
+        <v>11</v>
+      </c>
+      <c r="C701">
+        <v>0</v>
+      </c>
+      <c r="D701">
+        <v>62</v>
+      </c>
+      <c r="E701">
+        <v>1008896400</v>
+      </c>
+      <c r="F701">
+        <v>21136</v>
+      </c>
+      <c r="G701">
+        <v>62021136</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="s">
+        <v>186</v>
+      </c>
+      <c r="B702" t="s">
+        <v>8</v>
+      </c>
+      <c r="C702">
+        <v>0</v>
+      </c>
+      <c r="D702">
+        <v>67</v>
+      </c>
+      <c r="E702">
+        <v>985601500</v>
+      </c>
+      <c r="F702">
+        <v>20310</v>
+      </c>
+      <c r="G702">
+        <v>67020310</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="s">
+        <v>186</v>
+      </c>
+      <c r="B703" t="s">
+        <v>9</v>
+      </c>
+      <c r="C703">
+        <v>0</v>
+      </c>
+      <c r="D703">
+        <v>67</v>
+      </c>
+      <c r="E703">
+        <v>985601500</v>
+      </c>
+      <c r="F703">
+        <v>20209</v>
+      </c>
+      <c r="G703">
+        <v>67020209</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="s">
+        <v>186</v>
+      </c>
+      <c r="B704" t="s">
+        <v>10</v>
+      </c>
+      <c r="C704">
+        <v>0</v>
+      </c>
+      <c r="D704">
+        <v>67</v>
+      </c>
+      <c r="E704">
+        <v>985619000</v>
+      </c>
+      <c r="F704">
+        <v>20209</v>
+      </c>
+      <c r="G704">
+        <v>67020209</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="s">
+        <v>186</v>
+      </c>
+      <c r="B705" t="s">
+        <v>11</v>
+      </c>
+      <c r="C705">
+        <v>0</v>
+      </c>
+      <c r="D705">
+        <v>67</v>
+      </c>
+      <c r="E705">
+        <v>985601500</v>
+      </c>
+      <c r="F705">
+        <v>20209</v>
+      </c>
+      <c r="G705">
+        <v>67020209</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="s">
+        <v>187</v>
+      </c>
+      <c r="B706" t="s">
+        <v>8</v>
+      </c>
+      <c r="C706">
+        <v>0</v>
+      </c>
+      <c r="D706">
+        <v>155</v>
+      </c>
+      <c r="E706">
+        <v>1007211000</v>
+      </c>
+      <c r="F706">
+        <v>1945781</v>
+      </c>
+      <c r="G706">
+        <v>156945781</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="s">
+        <v>187</v>
+      </c>
+      <c r="B707" t="s">
+        <v>9</v>
+      </c>
+      <c r="C707">
+        <v>0</v>
+      </c>
+      <c r="D707">
+        <v>155</v>
+      </c>
+      <c r="E707">
+        <v>1007211000</v>
+      </c>
+      <c r="F707">
+        <v>1934109</v>
+      </c>
+      <c r="G707">
+        <v>156934109</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="s">
+        <v>187</v>
+      </c>
+      <c r="B708" t="s">
+        <v>10</v>
+      </c>
+      <c r="C708">
+        <v>0</v>
+      </c>
+      <c r="D708">
+        <v>155</v>
+      </c>
+      <c r="E708">
+        <v>1007249700</v>
+      </c>
+      <c r="F708">
+        <v>1934109</v>
+      </c>
+      <c r="G708">
+        <v>156934109</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="s">
+        <v>187</v>
+      </c>
+      <c r="B709" t="s">
+        <v>11</v>
+      </c>
+      <c r="C709">
+        <v>0</v>
+      </c>
+      <c r="D709">
+        <v>155</v>
+      </c>
+      <c r="E709">
+        <v>1007211000</v>
+      </c>
+      <c r="F709">
+        <v>1934109</v>
+      </c>
+      <c r="G709">
+        <v>156934109</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="s">
+        <v>188</v>
+      </c>
+      <c r="B710" t="s">
+        <v>8</v>
+      </c>
+      <c r="C710">
+        <v>0</v>
+      </c>
+      <c r="D710">
+        <v>155</v>
+      </c>
+      <c r="E710">
+        <v>1009802500</v>
+      </c>
+      <c r="F710">
+        <v>2438651</v>
+      </c>
+      <c r="G710">
+        <v>157438651</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="s">
+        <v>188</v>
+      </c>
+      <c r="B711" t="s">
+        <v>9</v>
+      </c>
+      <c r="C711">
+        <v>0</v>
+      </c>
+      <c r="D711">
+        <v>155</v>
+      </c>
+      <c r="E711">
+        <v>1009802500</v>
+      </c>
+      <c r="F711">
+        <v>2425074</v>
+      </c>
+      <c r="G711">
+        <v>157425074</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="s">
+        <v>188</v>
+      </c>
+      <c r="B712" t="s">
+        <v>10</v>
+      </c>
+      <c r="C712">
+        <v>0</v>
+      </c>
+      <c r="D712">
+        <v>155</v>
+      </c>
+      <c r="E712">
+        <v>1009815200</v>
+      </c>
+      <c r="F712">
+        <v>2425074</v>
+      </c>
+      <c r="G712">
+        <v>157425074</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="s">
+        <v>188</v>
+      </c>
+      <c r="B713" t="s">
+        <v>11</v>
+      </c>
+      <c r="C713">
+        <v>0</v>
+      </c>
+      <c r="D713">
+        <v>155</v>
+      </c>
+      <c r="E713">
+        <v>1009802500</v>
+      </c>
+      <c r="F713">
+        <v>2425074</v>
+      </c>
+      <c r="G713">
+        <v>157425074</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="s">
+        <v>189</v>
+      </c>
+      <c r="B714" t="s">
+        <v>8</v>
+      </c>
+      <c r="C714">
+        <v>0</v>
+      </c>
+      <c r="D714">
+        <v>18</v>
+      </c>
+      <c r="E714">
+        <v>219499900</v>
+      </c>
+      <c r="F714">
+        <v>84341</v>
+      </c>
+      <c r="G714">
+        <v>18084341</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="s">
+        <v>189</v>
+      </c>
+      <c r="B715" t="s">
+        <v>9</v>
+      </c>
+      <c r="C715">
+        <v>0</v>
+      </c>
+      <c r="D715">
+        <v>17</v>
+      </c>
+      <c r="E715">
+        <v>219499900</v>
+      </c>
+      <c r="F715">
+        <v>82098</v>
+      </c>
+      <c r="G715">
+        <v>17082098</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="s">
+        <v>189</v>
+      </c>
+      <c r="B716" t="s">
+        <v>10</v>
+      </c>
+      <c r="C716">
+        <v>0</v>
+      </c>
+      <c r="D716">
+        <v>17</v>
+      </c>
+      <c r="E716">
+        <v>219508600</v>
+      </c>
+      <c r="F716">
+        <v>82098</v>
+      </c>
+      <c r="G716">
+        <v>17082098</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="s">
+        <v>189</v>
+      </c>
+      <c r="B717" t="s">
+        <v>11</v>
+      </c>
+      <c r="C717">
+        <v>0</v>
+      </c>
+      <c r="D717">
+        <v>17</v>
+      </c>
+      <c r="E717">
+        <v>219499900</v>
+      </c>
+      <c r="F717">
+        <v>82098</v>
+      </c>
+      <c r="G717">
+        <v>17082098</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>